--- a/results/gru/corona/seed-300/0.1/percents/scores-10.xlsx
+++ b/results/gru/corona/seed-300/0.1/percents/scores-10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="115">
   <si>
     <t>0.95-negative</t>
   </si>
@@ -46,304 +46,301 @@
     <t>panic</t>
   </si>
   <si>
+    <t>no</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>cut</t>
+    <t>struggling</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>fraud</t>
   </si>
   <si>
     <t>crude</t>
   </si>
   <si>
-    <t>halt</t>
-  </si>
-  <si>
-    <t>warned</t>
-  </si>
-  <si>
-    <t>shortages</t>
-  </si>
-  <si>
-    <t>isolation</t>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>drop</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>classic</t>
-  </si>
-  <si>
-    <t>andre</t>
-  </si>
-  <si>
-    <t>evident</t>
-  </si>
-  <si>
-    <t>blocked</t>
-  </si>
-  <si>
-    <t>losses</t>
-  </si>
-  <si>
-    <t>depression</t>
+    <t>marco</t>
+  </si>
+  <si>
+    <t>panicked</t>
+  </si>
+  <si>
+    <t>badly</t>
+  </si>
+  <si>
+    <t>undermine</t>
+  </si>
+  <si>
+    <t>caution</t>
+  </si>
+  <si>
+    <t>curve</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>smuggling</t>
+  </si>
+  <si>
+    <t>alleged</t>
+  </si>
+  <si>
+    <t>arrest</t>
+  </si>
+  <si>
+    <t>obesity</t>
+  </si>
+  <si>
+    <t>ashamed</t>
+  </si>
+  <si>
+    <t>lose</t>
   </si>
   <si>
     <t>ban</t>
   </si>
   <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>spit</t>
-  </si>
-  <si>
-    <t>severe</t>
-  </si>
-  <si>
-    <t>lose</t>
-  </si>
-  <si>
-    <t>losing</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>dump</t>
-  </si>
-  <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>fail</t>
-  </si>
-  <si>
-    <t>struggling</t>
+    <t>charged</t>
+  </si>
+  <si>
+    <t>idiot</t>
+  </si>
+  <si>
+    <t>ass</t>
+  </si>
+  <si>
+    <t>round</t>
+  </si>
+  <si>
+    <t>threat</t>
   </si>
   <si>
     <t>chaos</t>
   </si>
   <si>
-    <t>stress</t>
-  </si>
-  <si>
-    <t>crash</t>
+    <t>lowest</t>
   </si>
   <si>
     <t>disruption</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>worried</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>rs</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>govt</t>
+    <t>ridiculous</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>worry</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>selfish</t>
   </si>
   <si>
     <t>anxiety</t>
   </si>
   <si>
-    <t>falling</t>
-  </si>
-  <si>
     <t>shit</t>
   </si>
   <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>shortage</t>
-  </si>
-  <si>
-    <t>virus</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>what</t>
-  </si>
-  <si>
-    <t>how</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>to</t>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>lock</t>
+  </si>
+  <si>
+    <t>more</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>co</t>
   </si>
   <si>
     <t>0.95-positive</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
     <t>safe</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>restoring</t>
+  </si>
+  <si>
+    <t>neat</t>
+  </si>
+  <si>
+    <t>trusted</t>
+  </si>
+  <si>
+    <t>delighted</t>
+  </si>
+  <si>
+    <t>excited</t>
+  </si>
+  <si>
+    <t>highlight</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>appreciation</t>
+  </si>
+  <si>
+    <t>wise</t>
+  </si>
+  <si>
+    <t>welcome</t>
+  </si>
+  <si>
+    <t>huge</t>
+  </si>
+  <si>
+    <t>agree</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>ha</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>giving</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>increase</t>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>papa</t>
-  </si>
-  <si>
-    <t>worthy</t>
-  </si>
-  <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>popular</t>
-  </si>
-  <si>
-    <t>cool</t>
-  </si>
-  <si>
-    <t>wise</t>
-  </si>
-  <si>
-    <t>grateful</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>proud</t>
-  </si>
-  <si>
-    <t>welcome</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>clear</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>canada</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>say</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>you</t>
   </si>
   <si>
     <t>0.8-negative</t>
@@ -719,7 +716,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BS56"/>
+  <dimension ref="A1:BS57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -730,25 +727,25 @@
         <v>0</v>
       </c>
       <c r="J1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB1" t="s">
         <v>110</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AK1" t="s">
         <v>111</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AT1" t="s">
         <v>112</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="BC1" t="s">
         <v>113</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BL1" t="s">
         <v>114</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:71">
@@ -950,13 +947,13 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.03955887162382519</v>
+        <v>0.03556655149439055</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -968,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K3">
-        <v>0.07912658399633153</v>
+        <v>0.04622449394206987</v>
       </c>
       <c r="L3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -992,19 +989,19 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>203</v>
+        <v>66</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="T3">
-        <v>0.02321013435274632</v>
+        <v>0.02139860589438672</v>
       </c>
       <c r="U3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="V3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="W3">
         <v>1</v>
@@ -1016,43 +1013,43 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AC3">
-        <v>0.03526621203179429</v>
+        <v>0.02883968634093938</v>
       </c>
       <c r="AD3">
+        <v>7</v>
+      </c>
+      <c r="AE3">
+        <v>7</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>1</v>
+      </c>
+      <c r="AH3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>66</v>
+      </c>
+      <c r="AK3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AE3">
-        <v>10</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>1</v>
-      </c>
-      <c r="AH3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>203</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="AL3">
-        <v>0.02071334086165848</v>
+        <v>0.01963363345519308</v>
       </c>
       <c r="AM3">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AN3">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AO3">
         <v>1</v>
@@ -1064,43 +1061,43 @@
         <v>0</v>
       </c>
       <c r="AR3">
-        <v>222</v>
+        <v>128</v>
       </c>
       <c r="AT3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU3">
+        <v>0.02592121837510839</v>
+      </c>
+      <c r="AV3">
+        <v>7</v>
+      </c>
+      <c r="AW3">
+        <v>7</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>1</v>
+      </c>
+      <c r="AZ3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA3">
         <v>66</v>
-      </c>
-      <c r="AU3">
-        <v>0.02764620631070951</v>
-      </c>
-      <c r="AV3">
-        <v>5</v>
-      </c>
-      <c r="AW3">
-        <v>5</v>
-      </c>
-      <c r="AX3">
-        <v>0</v>
-      </c>
-      <c r="AY3">
-        <v>1</v>
-      </c>
-      <c r="AZ3" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA3">
-        <v>19</v>
       </c>
       <c r="BC3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="BD3">
-        <v>0.02020118486078774</v>
+        <v>0.01913004933961431</v>
       </c>
       <c r="BE3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BF3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BG3">
         <v>1</v>
@@ -1112,31 +1109,31 @@
         <v>0</v>
       </c>
       <c r="BJ3">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="BL3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BM3">
+        <v>0.02471773893535529</v>
+      </c>
+      <c r="BN3">
+        <v>7</v>
+      </c>
+      <c r="BO3">
+        <v>7</v>
+      </c>
+      <c r="BP3">
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <v>1</v>
+      </c>
+      <c r="BR3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS3">
         <v>66</v>
-      </c>
-      <c r="BM3">
-        <v>0.0262965357562807</v>
-      </c>
-      <c r="BN3">
-        <v>5</v>
-      </c>
-      <c r="BO3">
-        <v>5</v>
-      </c>
-      <c r="BP3">
-        <v>0</v>
-      </c>
-      <c r="BQ3">
-        <v>1</v>
-      </c>
-      <c r="BR3" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS3">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:71">
@@ -1144,13 +1141,13 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.03329370910026247</v>
+        <v>0.0315664431826911</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1162,19 +1159,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K4">
-        <v>0.05313891203982418</v>
+        <v>0.0432892770285194</v>
       </c>
       <c r="L4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1186,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>52</v>
+        <v>206</v>
       </c>
       <c r="S4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="T4">
-        <v>0.02218517374237448</v>
+        <v>0.02120628765915958</v>
       </c>
       <c r="U4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W4">
         <v>1</v>
@@ -1210,13 +1207,13 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AC4">
-        <v>0.03186497290099301</v>
+        <v>0.02782632414810355</v>
       </c>
       <c r="AD4">
         <v>6</v>
@@ -1237,16 +1234,16 @@
         <v>52</v>
       </c>
       <c r="AK4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL4">
-        <v>0.02048866848223071</v>
+        <v>0.01940436832690865</v>
       </c>
       <c r="AM4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AN4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO4">
         <v>1</v>
@@ -1258,13 +1255,13 @@
         <v>0</v>
       </c>
       <c r="AR4">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AU4">
-        <v>0.02759639725315377</v>
+        <v>0.02547730290927645</v>
       </c>
       <c r="AV4">
         <v>6</v>
@@ -1288,13 +1285,13 @@
         <v>13</v>
       </c>
       <c r="BD4">
-        <v>0.01993730402711211</v>
+        <v>0.01902110914958167</v>
       </c>
       <c r="BE4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BF4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG4">
         <v>1</v>
@@ -1306,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="BJ4">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="BL4" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="BM4">
-        <v>0.02576559588340629</v>
+        <v>0.02450864442216271</v>
       </c>
       <c r="BN4">
         <v>6</v>
@@ -1338,13 +1335,13 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.0263977529234532</v>
+        <v>0.03135068215732589</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1356,19 +1353,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K5">
-        <v>0.04647620101318589</v>
+        <v>0.04181903634028635</v>
       </c>
       <c r="L5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1380,19 +1377,19 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T5">
-        <v>0.02108227615139962</v>
+        <v>0.02097880226965518</v>
       </c>
       <c r="U5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="V5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="W5">
         <v>1</v>
@@ -1404,13 +1401,13 @@
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>21</v>
+        <v>147</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AC5">
-        <v>0.03079300910233903</v>
+        <v>0.02688529091665731</v>
       </c>
       <c r="AD5">
         <v>5</v>
@@ -1428,19 +1425,19 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="AK5" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AL5">
-        <v>0.02045509794205789</v>
+        <v>0.0192479355536948</v>
       </c>
       <c r="AM5">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AN5">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AO5">
         <v>1</v>
@@ -1452,19 +1449,19 @@
         <v>0</v>
       </c>
       <c r="AR5">
-        <v>21</v>
+        <v>224</v>
       </c>
       <c r="AT5" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="AU5">
-        <v>0.02646571136047005</v>
+        <v>0.02510729970694065</v>
       </c>
       <c r="AV5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AW5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AX5">
         <v>0</v>
@@ -1476,13 +1473,13 @@
         <v>0</v>
       </c>
       <c r="BA5">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="BC5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="BD5">
-        <v>0.01991026246685601</v>
+        <v>0.01900900468402249</v>
       </c>
       <c r="BE5">
         <v>2</v>
@@ -1500,19 +1497,19 @@
         <v>0</v>
       </c>
       <c r="BJ5">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="BL5" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="BM5">
-        <v>0.02472597492421375</v>
+        <v>0.02437411507376738</v>
       </c>
       <c r="BN5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BO5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BP5">
         <v>0</v>
@@ -1524,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="BS5">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:71">
@@ -1532,13 +1529,13 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>0.02518897212095944</v>
+        <v>0.02023753872093039</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1550,19 +1547,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K6">
-        <v>0.03834753049697264</v>
+        <v>0.03747647624379321</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1574,92 +1571,92 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="T6">
-        <v>0.02049163594730171</v>
+        <v>0.01932466098835411</v>
       </c>
       <c r="U6">
+        <v>2</v>
+      </c>
+      <c r="V6">
+        <v>2</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z6">
         <v>5</v>
       </c>
-      <c r="V6">
+      <c r="AB6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC6">
+        <v>0.02546433480942516</v>
+      </c>
+      <c r="AD6">
+        <v>7</v>
+      </c>
+      <c r="AE6">
+        <v>7</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>1</v>
+      </c>
+      <c r="AH6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>206</v>
+      </c>
+      <c r="AK6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL6">
+        <v>0.01918608768213466</v>
+      </c>
+      <c r="AM6">
+        <v>2</v>
+      </c>
+      <c r="AN6">
+        <v>2</v>
+      </c>
+      <c r="AO6">
+        <v>1</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR6">
         <v>5</v>
       </c>
-      <c r="W6">
-        <v>1</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>130</v>
-      </c>
-      <c r="AB6" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC6">
-        <v>0.027761157162621</v>
-      </c>
-      <c r="AD6">
-        <v>4</v>
-      </c>
-      <c r="AE6">
-        <v>4</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>1</v>
-      </c>
-      <c r="AH6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI6">
-        <v>28</v>
-      </c>
-      <c r="AK6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AL6">
-        <v>0.02008424351568423</v>
-      </c>
-      <c r="AM6">
+      <c r="AT6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU6">
+        <v>0.02424410619644216</v>
+      </c>
+      <c r="AV6">
         <v>3</v>
       </c>
-      <c r="AN6">
+      <c r="AW6">
         <v>3</v>
       </c>
-      <c r="AO6">
-        <v>1</v>
-      </c>
-      <c r="AP6">
-        <v>0</v>
-      </c>
-      <c r="AQ6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR6">
-        <v>22</v>
-      </c>
-      <c r="AT6" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AU6">
-        <v>0.02563702137756249</v>
-      </c>
-      <c r="AV6">
-        <v>4</v>
-      </c>
-      <c r="AW6">
-        <v>4</v>
-      </c>
       <c r="AX6">
         <v>0</v>
       </c>
@@ -1670,19 +1667,19 @@
         <v>0</v>
       </c>
       <c r="BA6">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="BC6" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="BD6">
-        <v>0.01989898440621698</v>
+        <v>0.01899766006787732</v>
       </c>
       <c r="BE6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BF6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BG6">
         <v>1</v>
@@ -1694,19 +1691,19 @@
         <v>0</v>
       </c>
       <c r="BJ6">
+        <v>128</v>
+      </c>
+      <c r="BL6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BM6">
+        <v>0.02398078110231464</v>
+      </c>
+      <c r="BN6">
         <v>3</v>
       </c>
-      <c r="BL6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BM6">
-        <v>0.02377529603388314</v>
-      </c>
-      <c r="BN6">
-        <v>4</v>
-      </c>
       <c r="BO6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BP6">
         <v>0</v>
@@ -1718,7 +1715,7 @@
         <v>0</v>
       </c>
       <c r="BS6">
-        <v>47</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:71">
@@ -1726,13 +1723,13 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.02282373628751366</v>
+        <v>0.02013533612996792</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1744,13 +1741,13 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K7">
-        <v>0.03768435834692683</v>
+        <v>0.03252590692949319</v>
       </c>
       <c r="L7">
         <v>4</v>
@@ -1774,13 +1771,13 @@
         <v>13</v>
       </c>
       <c r="T7">
-        <v>0.02044719151687915</v>
+        <v>0.01921690475122044</v>
       </c>
       <c r="U7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W7">
         <v>1</v>
@@ -1792,13 +1789,13 @@
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AC7">
-        <v>0.02687454109880632</v>
+        <v>0.0252450777251117</v>
       </c>
       <c r="AD7">
         <v>4</v>
@@ -1819,34 +1816,34 @@
         <v>47</v>
       </c>
       <c r="AK7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL7">
+        <v>0.01907748841084203</v>
+      </c>
+      <c r="AM7">
+        <v>2</v>
+      </c>
+      <c r="AN7">
+        <v>2</v>
+      </c>
+      <c r="AO7">
+        <v>1</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR7">
         <v>14</v>
       </c>
-      <c r="AL7">
-        <v>0.01994941072087458</v>
-      </c>
-      <c r="AM7">
-        <v>2</v>
-      </c>
-      <c r="AN7">
-        <v>2</v>
-      </c>
-      <c r="AO7">
-        <v>1</v>
-      </c>
-      <c r="AP7">
-        <v>0</v>
-      </c>
-      <c r="AQ7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR7">
-        <v>2</v>
-      </c>
       <c r="AT7" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AU7">
-        <v>0.02470557171510172</v>
+        <v>0.0240228112908089</v>
       </c>
       <c r="AV7">
         <v>4</v>
@@ -1867,16 +1864,16 @@
         <v>47</v>
       </c>
       <c r="BC7" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="BD7">
-        <v>0.01980183837305608</v>
+        <v>0.01891927966900174</v>
       </c>
       <c r="BE7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="BF7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="BG7">
         <v>1</v>
@@ -1888,19 +1885,19 @@
         <v>0</v>
       </c>
       <c r="BJ7">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="BL7" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="BM7">
-        <v>0.02320544982321683</v>
+        <v>0.02351878913233201</v>
       </c>
       <c r="BN7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BO7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BP7">
         <v>0</v>
@@ -1912,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="BS7">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:71">
@@ -1920,7 +1917,7 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.02067927823270417</v>
+        <v>0.02012398028652765</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -1938,19 +1935,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K8">
-        <v>0.03691647480476852</v>
+        <v>0.02868652687532299</v>
       </c>
       <c r="L8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1962,13 +1959,13 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="S8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="T8">
-        <v>0.02004610889700402</v>
+        <v>0.01920493183598337</v>
       </c>
       <c r="U8">
         <v>2</v>
@@ -1986,19 +1983,19 @@
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AC8">
-        <v>0.02584793302491564</v>
+        <v>0.02488267618478218</v>
       </c>
       <c r="AD8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -2010,37 +2007,37 @@
         <v>0</v>
       </c>
       <c r="AI8">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="AK8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL8">
+        <v>0.01906542182514286</v>
+      </c>
+      <c r="AM8">
+        <v>2</v>
+      </c>
+      <c r="AN8">
+        <v>2</v>
+      </c>
+      <c r="AO8">
+        <v>1</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR8">
         <v>15</v>
       </c>
-      <c r="AL8">
-        <v>0.01993817159556201</v>
-      </c>
-      <c r="AM8">
-        <v>2</v>
-      </c>
-      <c r="AN8">
-        <v>2</v>
-      </c>
-      <c r="AO8">
-        <v>1</v>
-      </c>
-      <c r="AP8">
-        <v>0</v>
-      </c>
-      <c r="AQ8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR8">
-        <v>3</v>
-      </c>
       <c r="AT8" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AU8">
-        <v>0.02367686011086078</v>
+        <v>0.02377599519429998</v>
       </c>
       <c r="AV8">
         <v>3</v>
@@ -2058,19 +2055,19 @@
         <v>0</v>
       </c>
       <c r="BA8">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="BC8" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="BD8">
-        <v>0.01974109155727064</v>
+        <v>0.01891927966900174</v>
       </c>
       <c r="BE8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG8">
         <v>1</v>
@@ -2082,13 +2079,13 @@
         <v>0</v>
       </c>
       <c r="BJ8">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="BL8" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="BM8">
-        <v>0.0231554140921468</v>
+        <v>0.02350853505859875</v>
       </c>
       <c r="BN8">
         <v>3</v>
@@ -2106,7 +2103,7 @@
         <v>0</v>
       </c>
       <c r="BS8">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:71">
@@ -2114,7 +2111,7 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>0.02066876500515006</v>
+        <v>0.02003313353900545</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -2132,19 +2129,19 @@
         <v>0</v>
       </c>
       <c r="H9">
+        <v>23</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K9">
+        <v>0.028288176008484</v>
+      </c>
+      <c r="L9">
         <v>3</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K9">
-        <v>0.0362533026547227</v>
-      </c>
-      <c r="L9">
-        <v>4</v>
-      </c>
       <c r="M9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -2156,13 +2153,13 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="S9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="T9">
-        <v>0.02003496594392567</v>
+        <v>0.01910914851408678</v>
       </c>
       <c r="U9">
         <v>2</v>
@@ -2180,19 +2177,19 @@
         <v>0</v>
       </c>
       <c r="Z9">
+        <v>23</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC9">
+        <v>0.02442459276264811</v>
+      </c>
+      <c r="AD9">
         <v>3</v>
       </c>
-      <c r="AB9" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC9">
-        <v>0.02496131696110096</v>
-      </c>
-      <c r="AD9">
-        <v>4</v>
-      </c>
       <c r="AE9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -2204,13 +2201,13 @@
         <v>0</v>
       </c>
       <c r="AI9">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="AK9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL9">
-        <v>0.019780823841186</v>
+        <v>0.01896888913954941</v>
       </c>
       <c r="AM9">
         <v>2</v>
@@ -2228,19 +2225,19 @@
         <v>0</v>
       </c>
       <c r="AR9">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AT9" s="1" t="s">
         <v>73</v>
       </c>
       <c r="AU9">
-        <v>0.02362783644441547</v>
+        <v>0.02323353004380654</v>
       </c>
       <c r="AV9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX9">
         <v>0</v>
@@ -2252,19 +2249,19 @@
         <v>0</v>
       </c>
       <c r="BA9">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="BC9" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="BD9">
-        <v>0.01972981349663162</v>
+        <v>0.01891927966900174</v>
       </c>
       <c r="BE9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG9">
         <v>1</v>
@@ -2276,13 +2273,13 @@
         <v>0</v>
       </c>
       <c r="BJ9">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="BL9" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="BM9">
-        <v>0.02308592519218082</v>
+        <v>0.02320002032567652</v>
       </c>
       <c r="BN9">
         <v>2</v>
@@ -2300,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="BS9">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:71">
@@ -2308,7 +2305,7 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>0.02052157981939253</v>
+        <v>0.0200104218521249</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -2326,19 +2323,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K10">
-        <v>0.03496186215200191</v>
+        <v>0.02617062666370831</v>
       </c>
       <c r="L10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -2350,13 +2347,13 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="S10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="T10">
-        <v>0.01987896460082878</v>
+        <v>0.01908520268361263</v>
       </c>
       <c r="U10">
         <v>2</v>
@@ -2374,19 +2371,19 @@
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC10">
-        <v>0.02477596922626165</v>
+        <v>0.02331479195462616</v>
       </c>
       <c r="AD10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -2398,13 +2395,13 @@
         <v>0</v>
       </c>
       <c r="AI10">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="AK10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL10">
-        <v>0.01976958471587343</v>
+        <v>0.01894475596815105</v>
       </c>
       <c r="AM10">
         <v>2</v>
@@ -2422,19 +2419,19 @@
         <v>0</v>
       </c>
       <c r="AR10">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="AT10" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="AU10">
-        <v>0.02362705105330504</v>
+        <v>0.02306106809564889</v>
       </c>
       <c r="AV10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX10">
         <v>0</v>
@@ -2446,19 +2443,19 @@
         <v>0</v>
       </c>
       <c r="BA10">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="BC10" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="BD10">
-        <v>0.01970251408360003</v>
+        <v>0.01891927966900174</v>
       </c>
       <c r="BE10">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="BF10">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="BG10">
         <v>1</v>
@@ -2470,19 +2467,19 @@
         <v>0</v>
       </c>
       <c r="BJ10">
-        <v>222</v>
+        <v>0</v>
       </c>
       <c r="BL10" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="BM10">
-        <v>0.02276625763686467</v>
+        <v>0.02302603494114961</v>
       </c>
       <c r="BN10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BO10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BP10">
         <v>0</v>
@@ -2494,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="BS10">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:71">
@@ -2502,7 +2499,7 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>0.02051106659183842</v>
+        <v>0.01994228679148326</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -2520,19 +2517,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K11">
-        <v>0.03025376377813023</v>
+        <v>0.02379885506631333</v>
       </c>
       <c r="L11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -2544,13 +2541,13 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="S11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="T11">
-        <v>0.01986782164775043</v>
+        <v>0.01901336519219019</v>
       </c>
       <c r="U11">
         <v>2</v>
@@ -2568,19 +2565,19 @@
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC11">
-        <v>0.02472930522290298</v>
+        <v>0.02314602437805045</v>
       </c>
       <c r="AD11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -2592,19 +2589,19 @@
         <v>0</v>
       </c>
       <c r="AI11">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="AK11" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AL11">
-        <v>0.01961227367043863</v>
+        <v>0.01887235645395597</v>
       </c>
       <c r="AM11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO11">
         <v>1</v>
@@ -2616,13 +2613,13 @@
         <v>0</v>
       </c>
       <c r="AR11">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AT11" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AU11">
-        <v>0.02308936150462757</v>
+        <v>0.02286396872632587</v>
       </c>
       <c r="AV11">
         <v>2</v>
@@ -2640,13 +2637,13 @@
         <v>0</v>
       </c>
       <c r="BA11">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="BC11" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="BD11">
-        <v>0.01968021581509746</v>
+        <v>0.01891927966900174</v>
       </c>
       <c r="BE11">
         <v>1</v>
@@ -2670,7 +2667,7 @@
         <v>80</v>
       </c>
       <c r="BM11">
-        <v>0.02271622190579465</v>
+        <v>0.02301578086741636</v>
       </c>
       <c r="BN11">
         <v>1</v>
@@ -2688,7 +2685,7 @@
         <v>0</v>
       </c>
       <c r="BS11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:71">
@@ -2696,7 +2693,7 @@
         <v>18</v>
       </c>
       <c r="B12">
-        <v>0.01981719357326721</v>
+        <v>0.01934042708914871</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -2717,16 +2714,16 @@
         <v>84</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K12">
-        <v>0.0302188599807594</v>
+        <v>0.02365209422063581</v>
       </c>
       <c r="L12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -2738,13 +2735,13 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="T12">
-        <v>0.0194444531217186</v>
+        <v>0.01871366651554636</v>
       </c>
       <c r="U12">
         <v>1</v>
@@ -2765,16 +2762,16 @@
         <v>0</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC12">
-        <v>0.02421600118595764</v>
+        <v>0.02295314714767821</v>
       </c>
       <c r="AD12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -2786,13 +2783,13 @@
         <v>0</v>
       </c>
       <c r="AI12">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="AK12" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL12">
-        <v>0.01961227367043863</v>
+        <v>0.01886007344781904</v>
       </c>
       <c r="AM12">
         <v>1</v>
@@ -2813,16 +2810,16 @@
         <v>0</v>
       </c>
       <c r="AT12" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AU12">
-        <v>0.02308857611351714</v>
+        <v>0.02281425199913998</v>
       </c>
       <c r="AV12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX12">
         <v>0</v>
@@ -2834,19 +2831,19 @@
         <v>0</v>
       </c>
       <c r="BA12">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="BC12" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="BD12">
-        <v>0.01968021581509746</v>
+        <v>0.01891216895954903</v>
       </c>
       <c r="BE12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG12">
         <v>1</v>
@@ -2858,19 +2855,19 @@
         <v>0</v>
       </c>
       <c r="BJ12">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="BL12" s="1" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="BM12">
-        <v>0.02269115750157806</v>
+        <v>0.02301578086741636</v>
       </c>
       <c r="BN12">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="BO12">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="BP12">
         <v>0</v>
@@ -2882,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="BS12">
-        <v>203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:71">
@@ -2890,13 +2887,13 @@
         <v>19</v>
       </c>
       <c r="B13">
-        <v>0.01956487611196859</v>
+        <v>0.01774918329714887</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -2908,19 +2905,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K13">
-        <v>0.02983491820968025</v>
+        <v>0.0234843675398615</v>
       </c>
       <c r="L13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -2932,13 +2929,13 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T13">
-        <v>0.0194444531217186</v>
+        <v>0.01871366651554636</v>
       </c>
       <c r="U13">
         <v>1</v>
@@ -2959,16 +2956,16 @@
         <v>0</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AC13">
-        <v>0.02323474883683027</v>
+        <v>0.02288081818628862</v>
       </c>
       <c r="AD13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -2980,13 +2977,13 @@
         <v>0</v>
       </c>
       <c r="AI13">
-        <v>125</v>
+        <v>33</v>
       </c>
       <c r="AK13" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AL13">
-        <v>0.01961227367043863</v>
+        <v>0.01886007344781904</v>
       </c>
       <c r="AM13">
         <v>1</v>
@@ -3007,16 +3004,16 @@
         <v>0</v>
       </c>
       <c r="AT13" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="AU13">
-        <v>0.02269560139084427</v>
+        <v>0.02281425199913998</v>
       </c>
       <c r="AV13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AW13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX13">
         <v>0</v>
@@ -3028,13 +3025,13 @@
         <v>0</v>
       </c>
       <c r="BA13">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="BC13" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BD13">
-        <v>0.01968021581509746</v>
+        <v>0.01890717520344256</v>
       </c>
       <c r="BE13">
         <v>1</v>
@@ -3052,19 +3049,19 @@
         <v>0</v>
       </c>
       <c r="BJ13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL13" s="1" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="BM13">
-        <v>0.02267450995034243</v>
+        <v>0.02299092581248394</v>
       </c>
       <c r="BN13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BO13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BP13">
         <v>0</v>
@@ -3076,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="BS13">
-        <v>69</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:71">
@@ -3084,7 +3081,7 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>0.01834558208192072</v>
+        <v>0.01774918329714887</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -3105,10 +3102,10 @@
         <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K14">
-        <v>0.02313730338567112</v>
+        <v>0.02342147003457113</v>
       </c>
       <c r="L14">
         <v>2</v>
@@ -3126,13 +3123,13 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="T14">
-        <v>0.0194444531217186</v>
+        <v>0.01871366651554636</v>
       </c>
       <c r="U14">
         <v>1</v>
@@ -3153,10 +3150,10 @@
         <v>0</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AC14">
-        <v>0.02309737338394499</v>
+        <v>0.0227843795711025</v>
       </c>
       <c r="AD14">
         <v>2</v>
@@ -3174,13 +3171,13 @@
         <v>0</v>
       </c>
       <c r="AI14">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="AK14" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL14">
-        <v>0.01961227367043863</v>
+        <v>0.01886007344781904</v>
       </c>
       <c r="AM14">
         <v>1</v>
@@ -3204,7 +3201,7 @@
         <v>76</v>
       </c>
       <c r="AU14">
-        <v>0.02264814850661984</v>
+        <v>0.02279005646282973</v>
       </c>
       <c r="AV14">
         <v>2</v>
@@ -3222,13 +3219,13 @@
         <v>0</v>
       </c>
       <c r="BA14">
+        <v>33</v>
+      </c>
+      <c r="BC14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="BC14" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="BD14">
-        <v>0.01968021581509746</v>
+        <v>0.01890717520344256</v>
       </c>
       <c r="BE14">
         <v>1</v>
@@ -3246,13 +3243,13 @@
         <v>0</v>
       </c>
       <c r="BJ14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL14" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="BM14">
-        <v>0.02266618617472461</v>
+        <v>0.02299092581248394</v>
       </c>
       <c r="BN14">
         <v>1</v>
@@ -3270,7 +3267,7 @@
         <v>0</v>
       </c>
       <c r="BS14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:71">
@@ -3278,7 +3275,7 @@
         <v>21</v>
       </c>
       <c r="B15">
-        <v>0.01834558208192072</v>
+        <v>0.01774918329714887</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -3299,10 +3296,10 @@
         <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K15">
-        <v>0.02282316920933363</v>
+        <v>0.02333760669418397</v>
       </c>
       <c r="L15">
         <v>2</v>
@@ -3320,13 +3317,13 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T15">
-        <v>0.0194444531217186</v>
+        <v>0.01871366651554636</v>
       </c>
       <c r="U15">
         <v>1</v>
@@ -3347,10 +3344,10 @@
         <v>0</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AC15">
-        <v>0.02267739735371698</v>
+        <v>0.02249506372554414</v>
       </c>
       <c r="AD15">
         <v>2</v>
@@ -3368,13 +3365,13 @@
         <v>0</v>
       </c>
       <c r="AI15">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="AK15" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AL15">
-        <v>0.01958979541981349</v>
+        <v>0.01886007344781904</v>
       </c>
       <c r="AM15">
         <v>1</v>
@@ -3392,13 +3389,13 @@
         <v>0</v>
       </c>
       <c r="AR15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AU15">
-        <v>0.02230576823261314</v>
+        <v>0.0227896145779746</v>
       </c>
       <c r="AV15">
         <v>1</v>
@@ -3416,13 +3413,13 @@
         <v>0</v>
       </c>
       <c r="BA15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC15" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BD15">
-        <v>0.01965765969381941</v>
+        <v>0.01890717520344256</v>
       </c>
       <c r="BE15">
         <v>1</v>
@@ -3440,19 +3437,19 @@
         <v>0</v>
       </c>
       <c r="BJ15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BL15" s="1" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="BM15">
-        <v>0.02263560361255053</v>
+        <v>0.02296607075755153</v>
       </c>
       <c r="BN15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP15">
         <v>0</v>
@@ -3464,7 +3461,7 @@
         <v>0</v>
       </c>
       <c r="BS15">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:71">
@@ -3472,7 +3469,7 @@
         <v>22</v>
       </c>
       <c r="B16">
-        <v>0.01834558208192072</v>
+        <v>0.01774918329714887</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -3493,10 +3490,10 @@
         <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K16">
-        <v>0.02247413123562531</v>
+        <v>0.02308601667302251</v>
       </c>
       <c r="L16">
         <v>2</v>
@@ -3514,13 +3511,13 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T16">
-        <v>0.0194221672155619</v>
+        <v>0.01871366651554636</v>
       </c>
       <c r="U16">
         <v>1</v>
@@ -3538,19 +3535,19 @@
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AC16">
-        <v>0.02221075732013031</v>
+        <v>0.02232553941558686</v>
       </c>
       <c r="AD16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -3562,13 +3559,13 @@
         <v>0</v>
       </c>
       <c r="AI16">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AK16" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AL16">
-        <v>0.01958979541981349</v>
+        <v>0.01886007344781904</v>
       </c>
       <c r="AM16">
         <v>1</v>
@@ -3586,13 +3583,13 @@
         <v>0</v>
       </c>
       <c r="AR16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="AU16">
-        <v>0.02225674456616784</v>
+        <v>0.0227896145779746</v>
       </c>
       <c r="AV16">
         <v>1</v>
@@ -3613,10 +3610,10 @@
         <v>1</v>
       </c>
       <c r="BC16" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="BD16">
-        <v>0.01965765969381941</v>
+        <v>0.01890717520344256</v>
       </c>
       <c r="BE16">
         <v>1</v>
@@ -3634,13 +3631,13 @@
         <v>0</v>
       </c>
       <c r="BJ16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BL16" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="BM16">
-        <v>0.02261615044365458</v>
+        <v>0.02294121570261911</v>
       </c>
       <c r="BN16">
         <v>1</v>
@@ -3666,7 +3663,7 @@
         <v>23</v>
       </c>
       <c r="B17">
-        <v>0.01834558208192072</v>
+        <v>0.01774918329714887</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -3687,10 +3684,10 @@
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K17">
-        <v>0.01873942491694626</v>
+        <v>0.02222641743405415</v>
       </c>
       <c r="L17">
         <v>2</v>
@@ -3708,13 +3705,13 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>142</v>
+        <v>90</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T17">
-        <v>0.0194221672155619</v>
+        <v>0.01870169360030929</v>
       </c>
       <c r="U17">
         <v>1</v>
@@ -3732,13 +3729,13 @@
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AC17">
-        <v>0.02123212152819365</v>
+        <v>0.02232553941558686</v>
       </c>
       <c r="AD17">
         <v>1</v>
@@ -3759,16 +3756,16 @@
         <v>0</v>
       </c>
       <c r="AK17" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="AL17">
-        <v>0.0195896485840486</v>
+        <v>0.01884800686211986</v>
       </c>
       <c r="AM17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AN17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AO17">
         <v>1</v>
@@ -3780,13 +3777,13 @@
         <v>0</v>
       </c>
       <c r="AR17">
-        <v>130</v>
+        <v>1</v>
       </c>
       <c r="AT17" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AU17">
-        <v>0.02220772089972254</v>
+        <v>0.02276497715680922</v>
       </c>
       <c r="AV17">
         <v>1</v>
@@ -3807,10 +3804,10 @@
         <v>2</v>
       </c>
       <c r="BC17" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="BD17">
-        <v>0.01964638163318038</v>
+        <v>0.01889507073788338</v>
       </c>
       <c r="BE17">
         <v>1</v>
@@ -3828,31 +3825,31 @@
         <v>0</v>
       </c>
       <c r="BJ17">
+        <v>2</v>
+      </c>
+      <c r="BL17" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BM17">
+        <v>0.02294121570261911</v>
+      </c>
+      <c r="BN17">
+        <v>1</v>
+      </c>
+      <c r="BO17">
+        <v>1</v>
+      </c>
+      <c r="BP17">
+        <v>0</v>
+      </c>
+      <c r="BQ17">
+        <v>1</v>
+      </c>
+      <c r="BR17" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS17">
         <v>3</v>
-      </c>
-      <c r="BL17" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BM17">
-        <v>0.02260502105037645</v>
-      </c>
-      <c r="BN17">
-        <v>3</v>
-      </c>
-      <c r="BO17">
-        <v>3</v>
-      </c>
-      <c r="BP17">
-        <v>0</v>
-      </c>
-      <c r="BQ17">
-        <v>1</v>
-      </c>
-      <c r="BR17" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS17">
-        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:71">
@@ -3860,7 +3857,7 @@
         <v>24</v>
       </c>
       <c r="B18">
-        <v>0.0183245556268125</v>
+        <v>0.01773782745370859</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -3878,13 +3875,13 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K18">
-        <v>0.01588122780372869</v>
+        <v>0.01941436329962661</v>
       </c>
       <c r="L18">
         <v>1</v>
@@ -3905,10 +3902,10 @@
         <v>0</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="T18">
-        <v>0.01941102426248355</v>
+        <v>0.01870169360030929</v>
       </c>
       <c r="U18">
         <v>1</v>
@@ -3926,13 +3923,13 @@
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB18" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AC18">
-        <v>0.02118545752483499</v>
+        <v>0.02230142976179033</v>
       </c>
       <c r="AD18">
         <v>1</v>
@@ -3953,10 +3950,10 @@
         <v>1</v>
       </c>
       <c r="AK18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL18">
-        <v>0.01957855629450092</v>
+        <v>0.01884800686211986</v>
       </c>
       <c r="AM18">
         <v>1</v>
@@ -3974,13 +3971,13 @@
         <v>0</v>
       </c>
       <c r="AR18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AT18" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AU18">
-        <v>0.02215869723327723</v>
+        <v>0.02274033973564385</v>
       </c>
       <c r="AV18">
         <v>1</v>
@@ -4001,10 +3998,10 @@
         <v>3</v>
       </c>
       <c r="BC18" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BD18">
-        <v>0.01964638163318038</v>
+        <v>0.01889507073788338</v>
       </c>
       <c r="BE18">
         <v>1</v>
@@ -4022,13 +4019,13 @@
         <v>0</v>
       </c>
       <c r="BJ18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BL18" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="BM18">
-        <v>0.02256611471258455</v>
+        <v>0.0229163606476867</v>
       </c>
       <c r="BN18">
         <v>1</v>
@@ -4054,7 +4051,7 @@
         <v>25</v>
       </c>
       <c r="B19">
-        <v>0.0183245556268125</v>
+        <v>0.01773782745370859</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -4072,13 +4069,13 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K19">
-        <v>0.01584632400635785</v>
+        <v>0.01941436329962661</v>
       </c>
       <c r="L19">
         <v>1</v>
@@ -4096,13 +4093,13 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="T19">
-        <v>0.01941102426248355</v>
+        <v>0.01870169360030929</v>
       </c>
       <c r="U19">
         <v>1</v>
@@ -4120,85 +4117,85 @@
         <v>0</v>
       </c>
       <c r="Z19">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC19">
+        <v>0.02230142976179033</v>
+      </c>
+      <c r="AD19">
+        <v>1</v>
+      </c>
+      <c r="AE19">
+        <v>1</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>1</v>
+      </c>
+      <c r="AH19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>1</v>
+      </c>
+      <c r="AK19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL19">
+        <v>0.01884800686211986</v>
+      </c>
+      <c r="AM19">
+        <v>1</v>
+      </c>
+      <c r="AN19">
+        <v>1</v>
+      </c>
+      <c r="AO19">
+        <v>1</v>
+      </c>
+      <c r="AP19">
+        <v>0</v>
+      </c>
+      <c r="AQ19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR19">
+        <v>1</v>
+      </c>
+      <c r="AT19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AU19">
+        <v>0.02274033973564385</v>
+      </c>
+      <c r="AV19">
+        <v>1</v>
+      </c>
+      <c r="AW19">
+        <v>1</v>
+      </c>
+      <c r="AX19">
+        <v>0</v>
+      </c>
+      <c r="AY19">
+        <v>1</v>
+      </c>
+      <c r="AZ19" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA19">
         <v>3</v>
       </c>
-      <c r="AB19" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC19">
-        <v>0.02113879352147632</v>
-      </c>
-      <c r="AD19">
-        <v>1</v>
-      </c>
-      <c r="AE19">
-        <v>1</v>
-      </c>
-      <c r="AF19">
-        <v>0</v>
-      </c>
-      <c r="AG19">
-        <v>1</v>
-      </c>
-      <c r="AH19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI19">
-        <v>2</v>
-      </c>
-      <c r="AK19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AL19">
-        <v>0.01957855629450092</v>
-      </c>
-      <c r="AM19">
-        <v>1</v>
-      </c>
-      <c r="AN19">
-        <v>1</v>
-      </c>
-      <c r="AO19">
-        <v>1</v>
-      </c>
-      <c r="AP19">
-        <v>0</v>
-      </c>
-      <c r="AQ19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR19">
-        <v>3</v>
-      </c>
-      <c r="AT19" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AU19">
-        <v>0.0221579118421668</v>
-      </c>
-      <c r="AV19">
-        <v>2</v>
-      </c>
-      <c r="AW19">
-        <v>2</v>
-      </c>
-      <c r="AX19">
-        <v>0</v>
-      </c>
-      <c r="AY19">
-        <v>1</v>
-      </c>
-      <c r="AZ19" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA19">
-        <v>35</v>
-      </c>
       <c r="BC19" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="BD19">
-        <v>0.01964638163318038</v>
+        <v>0.01889507073788338</v>
       </c>
       <c r="BE19">
         <v>1</v>
@@ -4216,13 +4213,13 @@
         <v>0</v>
       </c>
       <c r="BJ19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BL19" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="BM19">
-        <v>0.02251607898151452</v>
+        <v>0.02289150559275428</v>
       </c>
       <c r="BN19">
         <v>1</v>
@@ -4248,7 +4245,7 @@
         <v>26</v>
       </c>
       <c r="B20">
-        <v>0.01831404239925839</v>
+        <v>0.01773782745370859</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -4266,13 +4263,13 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K20">
-        <v>0.01581142020898702</v>
+        <v>0.01939339746452982</v>
       </c>
       <c r="L20">
         <v>1</v>
@@ -4290,13 +4287,13 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T20">
-        <v>0.01941102426248355</v>
+        <v>0.01870169360030929</v>
       </c>
       <c r="U20">
         <v>1</v>
@@ -4314,13 +4311,13 @@
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB20" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AC20">
-        <v>0.02109212951811765</v>
+        <v>0.0222773201079938</v>
       </c>
       <c r="AD20">
         <v>1</v>
@@ -4338,13 +4335,13 @@
         <v>0</v>
       </c>
       <c r="AI20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK20" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL20">
-        <v>0.01957855629450092</v>
+        <v>0.01884800686211986</v>
       </c>
       <c r="AM20">
         <v>1</v>
@@ -4362,13 +4359,13 @@
         <v>0</v>
       </c>
       <c r="AR20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AT20" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="AU20">
-        <v>0.02210967356683193</v>
+        <v>0.02271570231447847</v>
       </c>
       <c r="AV20">
         <v>1</v>
@@ -4389,16 +4386,16 @@
         <v>4</v>
       </c>
       <c r="BC20" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="BD20">
-        <v>0.01964638163318038</v>
+        <v>0.01888796002843067</v>
       </c>
       <c r="BE20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG20">
         <v>1</v>
@@ -4410,13 +4407,13 @@
         <v>0</v>
       </c>
       <c r="BJ20">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="BL20" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="BM20">
-        <v>0.02251607898151452</v>
+        <v>0.02286665053782187</v>
       </c>
       <c r="BN20">
         <v>1</v>
@@ -4434,7 +4431,7 @@
         <v>0</v>
       </c>
       <c r="BS20">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:71">
@@ -4442,7 +4439,7 @@
         <v>27</v>
       </c>
       <c r="B21">
-        <v>0.01831404239925839</v>
+        <v>0.01773782745370859</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -4460,85 +4457,85 @@
         <v>0</v>
       </c>
       <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K21">
+        <v>0.01939339746452982</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T21">
+        <v>0.01868972068507222</v>
+      </c>
+      <c r="U21">
+        <v>1</v>
+      </c>
+      <c r="V21">
+        <v>1</v>
+      </c>
+      <c r="W21">
+        <v>1</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>2</v>
+      </c>
+      <c r="AB21" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC21">
+        <v>0.02225321045419728</v>
+      </c>
+      <c r="AD21">
+        <v>1</v>
+      </c>
+      <c r="AE21">
+        <v>1</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>1</v>
+      </c>
+      <c r="AH21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI21">
         <v>3</v>
       </c>
-      <c r="J21" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K21">
-        <v>0.01577651641161619</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>1</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>1</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>3</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T21">
-        <v>0.01941102426248355</v>
-      </c>
-      <c r="U21">
-        <v>1</v>
-      </c>
-      <c r="V21">
-        <v>1</v>
-      </c>
-      <c r="W21">
-        <v>1</v>
-      </c>
-      <c r="X21">
-        <v>0</v>
-      </c>
-      <c r="Y21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z21">
-        <v>3</v>
-      </c>
-      <c r="AB21" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC21">
-        <v>0.02104546551475898</v>
-      </c>
-      <c r="AD21">
-        <v>1</v>
-      </c>
-      <c r="AE21">
-        <v>1</v>
-      </c>
-      <c r="AF21">
-        <v>0</v>
-      </c>
-      <c r="AG21">
-        <v>1</v>
-      </c>
-      <c r="AH21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI21">
-        <v>4</v>
-      </c>
       <c r="AK21" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL21">
-        <v>0.01957855629450092</v>
+        <v>0.01883594027642068</v>
       </c>
       <c r="AM21">
         <v>1</v>
@@ -4556,19 +4553,19 @@
         <v>0</v>
       </c>
       <c r="AR21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT21" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AU21">
-        <v>0.02206064990038662</v>
+        <v>0.02269150677816822</v>
       </c>
       <c r="AV21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX21">
         <v>0</v>
@@ -4580,13 +4577,13 @@
         <v>0</v>
       </c>
       <c r="BA21">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="BC21" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BD21">
-        <v>0.01964638163318038</v>
+        <v>0.01888296627232419</v>
       </c>
       <c r="BE21">
         <v>1</v>
@@ -4607,10 +4604,10 @@
         <v>3</v>
       </c>
       <c r="BL21" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="BM21">
-        <v>0.02246604325044448</v>
+        <v>0.02286665053782187</v>
       </c>
       <c r="BN21">
         <v>1</v>
@@ -4636,7 +4633,7 @@
         <v>28</v>
       </c>
       <c r="B22">
-        <v>0.01831404239925839</v>
+        <v>0.01772647161026832</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -4654,85 +4651,85 @@
         <v>0</v>
       </c>
       <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K22">
+        <v>0.01937243162943304</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>2</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T22">
+        <v>0.01868972068507222</v>
+      </c>
+      <c r="U22">
+        <v>1</v>
+      </c>
+      <c r="V22">
+        <v>1</v>
+      </c>
+      <c r="W22">
+        <v>1</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>2</v>
+      </c>
+      <c r="AB22" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC22">
+        <v>0.02225321045419728</v>
+      </c>
+      <c r="AD22">
+        <v>1</v>
+      </c>
+      <c r="AE22">
+        <v>1</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>1</v>
+      </c>
+      <c r="AH22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI22">
         <v>3</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K22">
-        <v>0.01574161261424536</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>1</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>1</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>4</v>
-      </c>
-      <c r="S22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T22">
-        <v>0.01941102426248355</v>
-      </c>
-      <c r="U22">
-        <v>1</v>
-      </c>
-      <c r="V22">
-        <v>1</v>
-      </c>
-      <c r="W22">
-        <v>1</v>
-      </c>
-      <c r="X22">
-        <v>0</v>
-      </c>
-      <c r="Y22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z22">
-        <v>3</v>
-      </c>
-      <c r="AB22" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC22">
-        <v>0.02099880151140032</v>
-      </c>
-      <c r="AD22">
-        <v>1</v>
-      </c>
-      <c r="AE22">
-        <v>1</v>
-      </c>
-      <c r="AF22">
-        <v>0</v>
-      </c>
-      <c r="AG22">
-        <v>1</v>
-      </c>
-      <c r="AH22" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI22">
-        <v>5</v>
-      </c>
       <c r="AK22" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL22">
-        <v>0.01957855629450092</v>
+        <v>0.01883594027642068</v>
       </c>
       <c r="AM22">
         <v>1</v>
@@ -4750,13 +4747,13 @@
         <v>0</v>
       </c>
       <c r="AR22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT22" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AU22">
-        <v>0.02206064990038662</v>
+        <v>0.02269106489331309</v>
       </c>
       <c r="AV22">
         <v>1</v>
@@ -4777,10 +4774,10 @@
         <v>5</v>
       </c>
       <c r="BC22" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="BD22">
-        <v>0.01963510357254136</v>
+        <v>0.01888296627232419</v>
       </c>
       <c r="BE22">
         <v>1</v>
@@ -4798,13 +4795,13 @@
         <v>0</v>
       </c>
       <c r="BJ22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BL22" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="BM22">
-        <v>0.02246604325044448</v>
+        <v>0.02286665053782187</v>
       </c>
       <c r="BN22">
         <v>1</v>
@@ -4830,7 +4827,7 @@
         <v>29</v>
       </c>
       <c r="B23">
-        <v>0.01831404239925839</v>
+        <v>0.01772647161026832</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -4848,37 +4845,37 @@
         <v>0</v>
       </c>
       <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K23">
+        <v>0.01935146579433624</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
         <v>3</v>
       </c>
-      <c r="J23" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K23">
-        <v>0.01570670881687453</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>1</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>1</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>5</v>
-      </c>
       <c r="S23" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T23">
-        <v>0.0193998813094052</v>
+        <v>0.01868972068507222</v>
       </c>
       <c r="U23">
         <v>1</v>
@@ -4896,37 +4893,37 @@
         <v>0</v>
       </c>
       <c r="Z23">
+        <v>2</v>
+      </c>
+      <c r="AB23" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC23">
+        <v>0.02222910080040074</v>
+      </c>
+      <c r="AD23">
+        <v>1</v>
+      </c>
+      <c r="AE23">
+        <v>1</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>1</v>
+      </c>
+      <c r="AH23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI23">
         <v>4</v>
       </c>
-      <c r="AB23" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC23">
-        <v>0.02099880151140032</v>
-      </c>
-      <c r="AD23">
-        <v>1</v>
-      </c>
-      <c r="AE23">
-        <v>1</v>
-      </c>
-      <c r="AF23">
-        <v>0</v>
-      </c>
-      <c r="AG23">
-        <v>1</v>
-      </c>
-      <c r="AH23" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI23">
-        <v>5</v>
-      </c>
       <c r="AK23" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AL23">
-        <v>0.01956731716918834</v>
+        <v>0.01883594027642068</v>
       </c>
       <c r="AM23">
         <v>1</v>
@@ -4944,13 +4941,13 @@
         <v>0</v>
       </c>
       <c r="AR23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AT23" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AU23">
-        <v>0.02201162623394132</v>
+        <v>0.02266642747214771</v>
       </c>
       <c r="AV23">
         <v>1</v>
@@ -4971,10 +4968,10 @@
         <v>6</v>
       </c>
       <c r="BC23" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="BD23">
-        <v>0.01963510357254136</v>
+        <v>0.01887086180676501</v>
       </c>
       <c r="BE23">
         <v>1</v>
@@ -4995,10 +4992,10 @@
         <v>4</v>
       </c>
       <c r="BL23" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="BM23">
-        <v>0.02246604325044448</v>
+        <v>0.02284179548288945</v>
       </c>
       <c r="BN23">
         <v>1</v>
@@ -5016,7 +5013,7 @@
         <v>0</v>
       </c>
       <c r="BS23">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:71">
@@ -5024,7 +5021,7 @@
         <v>30</v>
       </c>
       <c r="B24">
-        <v>0.01831404239925839</v>
+        <v>0.01772647161026832</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -5042,85 +5039,85 @@
         <v>0</v>
       </c>
       <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K24">
+        <v>0.01935146579433624</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
         <v>3</v>
       </c>
-      <c r="J24" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K24">
-        <v>0.01570670881687453</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>1</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>1</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
+      <c r="S24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T24">
+        <v>0.01867774776983514</v>
+      </c>
+      <c r="U24">
+        <v>1</v>
+      </c>
+      <c r="V24">
+        <v>1</v>
+      </c>
+      <c r="W24">
+        <v>1</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>3</v>
+      </c>
+      <c r="AB24" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC24">
+        <v>0.02220499114660421</v>
+      </c>
+      <c r="AD24">
+        <v>1</v>
+      </c>
+      <c r="AE24">
+        <v>1</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>1</v>
+      </c>
+      <c r="AH24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI24">
         <v>5</v>
       </c>
-      <c r="S24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T24">
-        <v>0.0193998813094052</v>
-      </c>
-      <c r="U24">
-        <v>1</v>
-      </c>
-      <c r="V24">
-        <v>1</v>
-      </c>
-      <c r="W24">
-        <v>1</v>
-      </c>
-      <c r="X24">
-        <v>0</v>
-      </c>
-      <c r="Y24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z24">
-        <v>4</v>
-      </c>
-      <c r="AB24" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC24">
-        <v>0.02095213750804165</v>
-      </c>
-      <c r="AD24">
-        <v>1</v>
-      </c>
-      <c r="AE24">
-        <v>1</v>
-      </c>
-      <c r="AF24">
-        <v>0</v>
-      </c>
-      <c r="AG24">
-        <v>1</v>
-      </c>
-      <c r="AH24" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI24">
-        <v>6</v>
-      </c>
       <c r="AK24" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AL24">
-        <v>0.01956731716918834</v>
+        <v>0.0188238736907215</v>
       </c>
       <c r="AM24">
         <v>1</v>
@@ -5138,13 +5135,13 @@
         <v>0</v>
       </c>
       <c r="AR24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT24" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AU24">
-        <v>0.02201162623394132</v>
+        <v>0.02266642747214771</v>
       </c>
       <c r="AV24">
         <v>1</v>
@@ -5165,10 +5162,10 @@
         <v>6</v>
       </c>
       <c r="BC24" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="BD24">
-        <v>0.01963510357254136</v>
+        <v>0.01885875734120583</v>
       </c>
       <c r="BE24">
         <v>1</v>
@@ -5186,13 +5183,13 @@
         <v>0</v>
       </c>
       <c r="BJ24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BL24" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="BM24">
-        <v>0.02241600751937445</v>
+        <v>0.02284179548288945</v>
       </c>
       <c r="BN24">
         <v>1</v>
@@ -5218,7 +5215,7 @@
         <v>31</v>
       </c>
       <c r="B25">
-        <v>0.01830352917170428</v>
+        <v>0.01771511576682804</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -5236,37 +5233,37 @@
         <v>0</v>
       </c>
       <c r="H25">
+        <v>3</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K25">
+        <v>0.01933049995923946</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>4</v>
       </c>
-      <c r="J25" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K25">
-        <v>0.01567180501950369</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>1</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="O25">
-        <v>1</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>6</v>
-      </c>
       <c r="S25" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T25">
-        <v>0.0193998813094052</v>
+        <v>0.01867774776983514</v>
       </c>
       <c r="U25">
         <v>1</v>
@@ -5284,13 +5281,13 @@
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AC25">
-        <v>0.02095213750804165</v>
+        <v>0.02218088149280768</v>
       </c>
       <c r="AD25">
         <v>1</v>
@@ -5311,10 +5308,10 @@
         <v>6</v>
       </c>
       <c r="AK25" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AL25">
-        <v>0.01956731716918834</v>
+        <v>0.0188238736907215</v>
       </c>
       <c r="AM25">
         <v>1</v>
@@ -5332,13 +5329,13 @@
         <v>0</v>
       </c>
       <c r="AR25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT25" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AU25">
-        <v>0.02201162623394132</v>
+        <v>0.02266642747214771</v>
       </c>
       <c r="AV25">
         <v>1</v>
@@ -5359,10 +5356,10 @@
         <v>6</v>
       </c>
       <c r="BC25" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="BD25">
-        <v>0.01962382551190233</v>
+        <v>0.01884665287564665</v>
       </c>
       <c r="BE25">
         <v>1</v>
@@ -5380,19 +5377,19 @@
         <v>0</v>
       </c>
       <c r="BJ25">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BL25" s="1" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="BM25">
-        <v>0.02241600751937445</v>
+        <v>0.02282719450169029</v>
       </c>
       <c r="BN25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BO25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BP25">
         <v>0</v>
@@ -5404,7 +5401,7 @@
         <v>0</v>
       </c>
       <c r="BS25">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:71">
@@ -5412,7 +5409,7 @@
         <v>32</v>
       </c>
       <c r="B26">
-        <v>0.01830352917170428</v>
+        <v>0.01771511576682804</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -5430,61 +5427,61 @@
         <v>0</v>
       </c>
       <c r="H26">
+        <v>3</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K26">
+        <v>0.01930953412414267</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>5</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T26">
+        <v>0.01866577485459807</v>
+      </c>
+      <c r="U26">
+        <v>1</v>
+      </c>
+      <c r="V26">
+        <v>1</v>
+      </c>
+      <c r="W26">
+        <v>1</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z26">
         <v>4</v>
       </c>
-      <c r="J26" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K26">
-        <v>0.01567180501950369</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>1</v>
-      </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-      <c r="O26">
-        <v>1</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>6</v>
-      </c>
-      <c r="S26" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T26">
-        <v>0.01938873835632685</v>
-      </c>
-      <c r="U26">
-        <v>1</v>
-      </c>
-      <c r="V26">
-        <v>1</v>
-      </c>
-      <c r="W26">
-        <v>1</v>
-      </c>
-      <c r="X26">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z26">
-        <v>5</v>
-      </c>
       <c r="AB26" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AC26">
-        <v>0.02095213750804165</v>
+        <v>0.02218088149280768</v>
       </c>
       <c r="AD26">
         <v>1</v>
@@ -5505,10 +5502,10 @@
         <v>6</v>
       </c>
       <c r="AK26" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AL26">
-        <v>0.01955607804387578</v>
+        <v>0.01881180710502232</v>
       </c>
       <c r="AM26">
         <v>1</v>
@@ -5526,13 +5523,13 @@
         <v>0</v>
       </c>
       <c r="AR26">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT26" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AU26">
-        <v>0.02196260256749602</v>
+        <v>0.02264179005098233</v>
       </c>
       <c r="AV26">
         <v>1</v>
@@ -5553,10 +5550,10 @@
         <v>7</v>
       </c>
       <c r="BC26" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="BD26">
-        <v>0.01962382551190233</v>
+        <v>0.01884665287564665</v>
       </c>
       <c r="BE26">
         <v>1</v>
@@ -5574,13 +5571,13 @@
         <v>0</v>
       </c>
       <c r="BJ26">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BL26" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="BM26">
-        <v>0.02236597178830442</v>
+        <v>0.02281694042795704</v>
       </c>
       <c r="BN26">
         <v>1</v>
@@ -5606,7 +5603,7 @@
         <v>33</v>
       </c>
       <c r="B27">
-        <v>0.01830352917170428</v>
+        <v>0.01770375992338777</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -5627,10 +5624,10 @@
         <v>4</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K27">
-        <v>0.01567180501950369</v>
+        <v>0.01928856828904588</v>
       </c>
       <c r="L27">
         <v>1</v>
@@ -5651,10 +5648,10 @@
         <v>6</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T27">
-        <v>0.01938873835632685</v>
+        <v>0.01865380193936099</v>
       </c>
       <c r="U27">
         <v>1</v>
@@ -5675,10 +5672,10 @@
         <v>5</v>
       </c>
       <c r="AB27" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AC27">
-        <v>0.02090547350468298</v>
+        <v>0.02218088149280768</v>
       </c>
       <c r="AD27">
         <v>1</v>
@@ -5696,13 +5693,13 @@
         <v>0</v>
       </c>
       <c r="AI27">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK27" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AL27">
-        <v>0.01955607804387578</v>
+        <v>0.01879974051932314</v>
       </c>
       <c r="AM27">
         <v>1</v>
@@ -5723,10 +5720,10 @@
         <v>5</v>
       </c>
       <c r="AT27" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="AU27">
-        <v>0.02196260256749602</v>
+        <v>0.02264179005098233</v>
       </c>
       <c r="AV27">
         <v>1</v>
@@ -5747,10 +5744,10 @@
         <v>7</v>
       </c>
       <c r="BC27" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="BD27">
-        <v>0.01961254745126331</v>
+        <v>0.01884665287564665</v>
       </c>
       <c r="BE27">
         <v>1</v>
@@ -5771,10 +5768,10 @@
         <v>6</v>
       </c>
       <c r="BL27" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="BM27">
-        <v>0.02221586459509432</v>
+        <v>0.02279208537302462</v>
       </c>
       <c r="BN27">
         <v>1</v>
@@ -5792,7 +5789,7 @@
         <v>0</v>
       </c>
       <c r="BS27">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:71">
@@ -5800,7 +5797,7 @@
         <v>34</v>
       </c>
       <c r="B28">
-        <v>0.01829301594415017</v>
+        <v>0.01769240407994749</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -5821,10 +5818,10 @@
         <v>5</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K28">
-        <v>0.01563690122213286</v>
+        <v>0.01928856828904588</v>
       </c>
       <c r="L28">
         <v>1</v>
@@ -5842,13 +5839,13 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T28">
-        <v>0.0193775954032485</v>
+        <v>0.01864182902412392</v>
       </c>
       <c r="U28">
         <v>1</v>
@@ -5869,10 +5866,10 @@
         <v>6</v>
       </c>
       <c r="AB28" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AC28">
-        <v>0.02090547350468298</v>
+        <v>0.02215677183901115</v>
       </c>
       <c r="AD28">
         <v>1</v>
@@ -5893,10 +5890,10 @@
         <v>7</v>
       </c>
       <c r="AK28" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AL28">
-        <v>0.0195448389185632</v>
+        <v>0.01878767393362396</v>
       </c>
       <c r="AM28">
         <v>1</v>
@@ -5917,10 +5914,10 @@
         <v>6</v>
       </c>
       <c r="AT28" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AU28">
-        <v>0.02191357890105071</v>
+        <v>0.02261715262981696</v>
       </c>
       <c r="AV28">
         <v>1</v>
@@ -5941,10 +5938,10 @@
         <v>8</v>
       </c>
       <c r="BC28" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="BD28">
-        <v>0.01960126939062428</v>
+        <v>0.01883454841008746</v>
       </c>
       <c r="BE28">
         <v>1</v>
@@ -5965,10 +5962,10 @@
         <v>7</v>
       </c>
       <c r="BL28" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="BM28">
-        <v>0.02216582886402429</v>
+        <v>0.0227672303180922</v>
       </c>
       <c r="BN28">
         <v>1</v>
@@ -5986,7 +5983,7 @@
         <v>0</v>
       </c>
       <c r="BS28">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:71">
@@ -5994,7 +5991,7 @@
         <v>35</v>
       </c>
       <c r="B29">
-        <v>0.01829301594415017</v>
+        <v>0.01768104823650722</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -6012,13 +6009,13 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K29">
-        <v>0.01563690122213286</v>
+        <v>0.01928856828904588</v>
       </c>
       <c r="L29">
         <v>1</v>
@@ -6036,61 +6033,61 @@
         <v>0</v>
       </c>
       <c r="Q29">
+        <v>6</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T29">
+        <v>0.01864182902412392</v>
+      </c>
+      <c r="U29">
+        <v>1</v>
+      </c>
+      <c r="V29">
+        <v>1</v>
+      </c>
+      <c r="W29">
+        <v>1</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>6</v>
+      </c>
+      <c r="AB29" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC29">
+        <v>0.02215677183901115</v>
+      </c>
+      <c r="AD29">
+        <v>1</v>
+      </c>
+      <c r="AE29">
+        <v>1</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="AG29">
+        <v>1</v>
+      </c>
+      <c r="AH29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI29">
         <v>7</v>
       </c>
-      <c r="S29" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="T29">
-        <v>0.01936645245017016</v>
-      </c>
-      <c r="U29">
-        <v>1</v>
-      </c>
-      <c r="V29">
-        <v>1</v>
-      </c>
-      <c r="W29">
-        <v>1</v>
-      </c>
-      <c r="X29">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z29">
-        <v>7</v>
-      </c>
-      <c r="AB29" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC29">
-        <v>0.02085880950132431</v>
-      </c>
-      <c r="AD29">
-        <v>1</v>
-      </c>
-      <c r="AE29">
-        <v>1</v>
-      </c>
-      <c r="AF29">
-        <v>0</v>
-      </c>
-      <c r="AG29">
-        <v>1</v>
-      </c>
-      <c r="AH29" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI29">
-        <v>8</v>
-      </c>
       <c r="AK29" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AL29">
-        <v>0.01953359979325063</v>
+        <v>0.01878767393362396</v>
       </c>
       <c r="AM29">
         <v>1</v>
@@ -6108,13 +6105,13 @@
         <v>0</v>
       </c>
       <c r="AR29">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT29" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AU29">
-        <v>0.0217665079017148</v>
+        <v>0.02259251520865158</v>
       </c>
       <c r="AV29">
         <v>1</v>
@@ -6132,13 +6129,13 @@
         <v>0</v>
       </c>
       <c r="BA29">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BC29" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="BD29">
-        <v>0.01960126939062428</v>
+        <v>0.01883454841008746</v>
       </c>
       <c r="BE29">
         <v>1</v>
@@ -6159,10 +6156,10 @@
         <v>7</v>
       </c>
       <c r="BL29" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BM29">
-        <v>0.02213524630185021</v>
+        <v>0.02275262933689305</v>
       </c>
       <c r="BN29">
         <v>2</v>
@@ -6180,7 +6177,7 @@
         <v>0</v>
       </c>
       <c r="BS29">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:71">
@@ -6188,7 +6185,7 @@
         <v>36</v>
       </c>
       <c r="B30">
-        <v>0.01828250271659606</v>
+        <v>0.01768104823650722</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -6209,10 +6206,10 @@
         <v>6</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K30">
-        <v>0.01560199742476203</v>
+        <v>0.01926760245394909</v>
       </c>
       <c r="L30">
         <v>1</v>
@@ -6230,61 +6227,61 @@
         <v>0</v>
       </c>
       <c r="Q30">
+        <v>7</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T30">
+        <v>0.01864182902412392</v>
+      </c>
+      <c r="U30">
+        <v>1</v>
+      </c>
+      <c r="V30">
+        <v>1</v>
+      </c>
+      <c r="W30">
+        <v>1</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>6</v>
+      </c>
+      <c r="AB30" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC30">
+        <v>0.02213266218521462</v>
+      </c>
+      <c r="AD30">
+        <v>1</v>
+      </c>
+      <c r="AE30">
+        <v>1</v>
+      </c>
+      <c r="AF30">
+        <v>0</v>
+      </c>
+      <c r="AG30">
+        <v>1</v>
+      </c>
+      <c r="AH30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI30">
         <v>8</v>
       </c>
-      <c r="S30" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="T30">
-        <v>0.01936645245017016</v>
-      </c>
-      <c r="U30">
-        <v>1</v>
-      </c>
-      <c r="V30">
-        <v>1</v>
-      </c>
-      <c r="W30">
-        <v>1</v>
-      </c>
-      <c r="X30">
-        <v>0</v>
-      </c>
-      <c r="Y30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z30">
-        <v>7</v>
-      </c>
-      <c r="AB30" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC30">
-        <v>0.02071881749124831</v>
-      </c>
-      <c r="AD30">
-        <v>1</v>
-      </c>
-      <c r="AE30">
-        <v>1</v>
-      </c>
-      <c r="AF30">
-        <v>0</v>
-      </c>
-      <c r="AG30">
-        <v>1</v>
-      </c>
-      <c r="AH30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI30">
-        <v>11</v>
-      </c>
       <c r="AK30" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AL30">
-        <v>0.01953359979325063</v>
+        <v>0.01878767393362396</v>
       </c>
       <c r="AM30">
         <v>1</v>
@@ -6302,13 +6299,13 @@
         <v>0</v>
       </c>
       <c r="AR30">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT30" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AU30">
-        <v>0.0217174842352695</v>
+        <v>0.0225678777874862</v>
       </c>
       <c r="AV30">
         <v>1</v>
@@ -6326,13 +6323,13 @@
         <v>0</v>
       </c>
       <c r="BA30">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BC30" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="BD30">
-        <v>0.01958999132998526</v>
+        <v>0.01882244394452828</v>
       </c>
       <c r="BE30">
         <v>1</v>
@@ -6353,10 +6350,10 @@
         <v>8</v>
       </c>
       <c r="BL30" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="BM30">
-        <v>0.02201572167081419</v>
+        <v>0.02274237526315979</v>
       </c>
       <c r="BN30">
         <v>1</v>
@@ -6374,7 +6371,7 @@
         <v>0</v>
       </c>
       <c r="BS30">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:71">
@@ -6382,7 +6379,7 @@
         <v>37</v>
       </c>
       <c r="B31">
-        <v>0.01827198948904195</v>
+        <v>0.01768104823650722</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -6400,133 +6397,133 @@
         <v>0</v>
       </c>
       <c r="H31">
+        <v>6</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K31">
+        <v>0.01926760245394909</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
         <v>7</v>
       </c>
-      <c r="J31" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K31">
-        <v>0.01549728603264953</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>1</v>
-      </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
-      <c r="O31">
-        <v>1</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
+      <c r="S31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T31">
+        <v>0.01862985610888685</v>
+      </c>
+      <c r="U31">
+        <v>1</v>
+      </c>
+      <c r="V31">
+        <v>1</v>
+      </c>
+      <c r="W31">
+        <v>1</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>7</v>
+      </c>
+      <c r="AB31" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC31">
+        <v>0.02210855253141809</v>
+      </c>
+      <c r="AD31">
+        <v>1</v>
+      </c>
+      <c r="AE31">
+        <v>1</v>
+      </c>
+      <c r="AF31">
+        <v>0</v>
+      </c>
+      <c r="AG31">
+        <v>1</v>
+      </c>
+      <c r="AH31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>9</v>
+      </c>
+      <c r="AK31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL31">
+        <v>0.01877560734792478</v>
+      </c>
+      <c r="AM31">
+        <v>1</v>
+      </c>
+      <c r="AN31">
+        <v>1</v>
+      </c>
+      <c r="AO31">
+        <v>1</v>
+      </c>
+      <c r="AP31">
+        <v>0</v>
+      </c>
+      <c r="AQ31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR31">
+        <v>7</v>
+      </c>
+      <c r="AT31" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AU31">
+        <v>0.02254324036632082</v>
+      </c>
+      <c r="AV31">
+        <v>1</v>
+      </c>
+      <c r="AW31">
+        <v>1</v>
+      </c>
+      <c r="AX31">
+        <v>0</v>
+      </c>
+      <c r="AY31">
+        <v>1</v>
+      </c>
+      <c r="AZ31" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA31">
         <v>11</v>
       </c>
-      <c r="S31" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="T31">
-        <v>0.01935530949709181</v>
-      </c>
-      <c r="U31">
-        <v>1</v>
-      </c>
-      <c r="V31">
-        <v>1</v>
-      </c>
-      <c r="W31">
-        <v>1</v>
-      </c>
-      <c r="X31">
-        <v>0</v>
-      </c>
-      <c r="Y31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z31">
-        <v>8</v>
-      </c>
-      <c r="AB31" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC31">
-        <v>0.02067215348788964</v>
-      </c>
-      <c r="AD31">
-        <v>1</v>
-      </c>
-      <c r="AE31">
-        <v>1</v>
-      </c>
-      <c r="AF31">
-        <v>0</v>
-      </c>
-      <c r="AG31">
-        <v>1</v>
-      </c>
-      <c r="AH31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI31">
-        <v>12</v>
-      </c>
-      <c r="AK31" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL31">
-        <v>0.01952236066793806</v>
-      </c>
-      <c r="AM31">
-        <v>1</v>
-      </c>
-      <c r="AN31">
-        <v>1</v>
-      </c>
-      <c r="AO31">
-        <v>1</v>
-      </c>
-      <c r="AP31">
-        <v>0</v>
-      </c>
-      <c r="AQ31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR31">
-        <v>8</v>
-      </c>
-      <c r="AT31" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AU31">
-        <v>0.02157041323593359</v>
-      </c>
-      <c r="AV31">
-        <v>1</v>
-      </c>
-      <c r="AW31">
-        <v>1</v>
-      </c>
-      <c r="AX31">
-        <v>0</v>
-      </c>
-      <c r="AY31">
-        <v>1</v>
-      </c>
-      <c r="AZ31" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA31">
-        <v>15</v>
-      </c>
       <c r="BC31" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="BD31">
-        <v>0.01958999132998526</v>
+        <v>0.01882244394452828</v>
       </c>
       <c r="BE31">
         <v>1</v>
@@ -6547,10 +6544,10 @@
         <v>8</v>
       </c>
       <c r="BL31" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="BM31">
-        <v>0.02191565020867413</v>
+        <v>0.02271752020822738</v>
       </c>
       <c r="BN31">
         <v>1</v>
@@ -6568,7 +6565,7 @@
         <v>0</v>
       </c>
       <c r="BS31">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:71">
@@ -6576,7 +6573,7 @@
         <v>38</v>
       </c>
       <c r="B32">
-        <v>0.01827198948904195</v>
+        <v>0.01766969239306694</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -6597,10 +6594,10 @@
         <v>7</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K32">
-        <v>0.0154623822352787</v>
+        <v>0.0192466366188523</v>
       </c>
       <c r="L32">
         <v>1</v>
@@ -6618,133 +6615,133 @@
         <v>0</v>
       </c>
       <c r="Q32">
+        <v>8</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T32">
+        <v>0.01862985610888685</v>
+      </c>
+      <c r="U32">
+        <v>1</v>
+      </c>
+      <c r="V32">
+        <v>1</v>
+      </c>
+      <c r="W32">
+        <v>1</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>7</v>
+      </c>
+      <c r="AB32" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC32">
+        <v>0.02208444287762156</v>
+      </c>
+      <c r="AD32">
+        <v>1</v>
+      </c>
+      <c r="AE32">
+        <v>1</v>
+      </c>
+      <c r="AF32">
+        <v>0</v>
+      </c>
+      <c r="AG32">
+        <v>1</v>
+      </c>
+      <c r="AH32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>10</v>
+      </c>
+      <c r="AK32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL32">
+        <v>0.01877560734792478</v>
+      </c>
+      <c r="AM32">
+        <v>1</v>
+      </c>
+      <c r="AN32">
+        <v>1</v>
+      </c>
+      <c r="AO32">
+        <v>1</v>
+      </c>
+      <c r="AP32">
+        <v>0</v>
+      </c>
+      <c r="AQ32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR32">
+        <v>7</v>
+      </c>
+      <c r="AT32" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AU32">
+        <v>0.02251860294515544</v>
+      </c>
+      <c r="AV32">
+        <v>1</v>
+      </c>
+      <c r="AW32">
+        <v>1</v>
+      </c>
+      <c r="AX32">
+        <v>0</v>
+      </c>
+      <c r="AY32">
+        <v>1</v>
+      </c>
+      <c r="AZ32" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA32">
         <v>12</v>
       </c>
-      <c r="S32" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T32">
-        <v>0.01935530949709181</v>
-      </c>
-      <c r="U32">
-        <v>1</v>
-      </c>
-      <c r="V32">
-        <v>1</v>
-      </c>
-      <c r="W32">
-        <v>1</v>
-      </c>
-      <c r="X32">
-        <v>0</v>
-      </c>
-      <c r="Y32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z32">
+      <c r="BC32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="BD32">
+        <v>0.01882244394452828</v>
+      </c>
+      <c r="BE32">
+        <v>1</v>
+      </c>
+      <c r="BF32">
+        <v>1</v>
+      </c>
+      <c r="BG32">
+        <v>1</v>
+      </c>
+      <c r="BH32">
+        <v>0</v>
+      </c>
+      <c r="BI32" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ32">
         <v>8</v>
       </c>
-      <c r="AB32" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC32">
-        <v>0.02053216147781364</v>
-      </c>
-      <c r="AD32">
-        <v>1</v>
-      </c>
-      <c r="AE32">
-        <v>1</v>
-      </c>
-      <c r="AF32">
-        <v>0</v>
-      </c>
-      <c r="AG32">
-        <v>1</v>
-      </c>
-      <c r="AH32" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI32">
-        <v>15</v>
-      </c>
-      <c r="AK32" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AL32">
-        <v>0.01952236066793806</v>
-      </c>
-      <c r="AM32">
-        <v>1</v>
-      </c>
-      <c r="AN32">
-        <v>1</v>
-      </c>
-      <c r="AO32">
-        <v>1</v>
-      </c>
-      <c r="AP32">
-        <v>0</v>
-      </c>
-      <c r="AQ32" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR32">
-        <v>8</v>
-      </c>
-      <c r="AT32" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AU32">
-        <v>0.02147236590304298</v>
-      </c>
-      <c r="AV32">
-        <v>1</v>
-      </c>
-      <c r="AW32">
-        <v>1</v>
-      </c>
-      <c r="AX32">
-        <v>0</v>
-      </c>
-      <c r="AY32">
-        <v>1</v>
-      </c>
-      <c r="AZ32" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA32">
-        <v>17</v>
-      </c>
-      <c r="BC32" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="BD32">
-        <v>0.01957871326934624</v>
-      </c>
-      <c r="BE32">
-        <v>1</v>
-      </c>
-      <c r="BF32">
-        <v>1</v>
-      </c>
-      <c r="BG32">
-        <v>1</v>
-      </c>
-      <c r="BH32">
-        <v>0</v>
-      </c>
-      <c r="BI32" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ32">
-        <v>9</v>
-      </c>
       <c r="BL32" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="BM32">
-        <v>0.02181557874653406</v>
+        <v>0.02271752020822738</v>
       </c>
       <c r="BN32">
         <v>1</v>
@@ -6762,7 +6759,7 @@
         <v>0</v>
       </c>
       <c r="BS32">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:71">
@@ -6770,7 +6767,7 @@
         <v>39</v>
       </c>
       <c r="B33">
-        <v>0.01826147626148784</v>
+        <v>0.01766969239306694</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -6788,61 +6785,61 @@
         <v>0</v>
       </c>
       <c r="H33">
+        <v>7</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K33">
+        <v>0.01922567078375551</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>9</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T33">
+        <v>0.01861788319364978</v>
+      </c>
+      <c r="U33">
+        <v>1</v>
+      </c>
+      <c r="V33">
+        <v>1</v>
+      </c>
+      <c r="W33">
+        <v>1</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z33">
         <v>8</v>
       </c>
-      <c r="J33" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K33">
-        <v>0.0153576708431662</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>1</v>
-      </c>
-      <c r="N33">
-        <v>0</v>
-      </c>
-      <c r="O33">
-        <v>1</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>15</v>
-      </c>
-      <c r="S33" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="T33">
-        <v>0.01934416654401346</v>
-      </c>
-      <c r="U33">
-        <v>1</v>
-      </c>
-      <c r="V33">
-        <v>1</v>
-      </c>
-      <c r="W33">
-        <v>1</v>
-      </c>
-      <c r="X33">
-        <v>0</v>
-      </c>
-      <c r="Y33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z33">
-        <v>9</v>
-      </c>
       <c r="AB33" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AC33">
-        <v>0.02043883347109631</v>
+        <v>0.02206033322382503</v>
       </c>
       <c r="AD33">
         <v>1</v>
@@ -6860,67 +6857,67 @@
         <v>0</v>
       </c>
       <c r="AI33">
+        <v>11</v>
+      </c>
+      <c r="AK33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL33">
+        <v>0.01876354076222559</v>
+      </c>
+      <c r="AM33">
+        <v>1</v>
+      </c>
+      <c r="AN33">
+        <v>1</v>
+      </c>
+      <c r="AO33">
+        <v>1</v>
+      </c>
+      <c r="AP33">
+        <v>0</v>
+      </c>
+      <c r="AQ33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR33">
+        <v>8</v>
+      </c>
+      <c r="AT33" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AU33">
+        <v>0.02251860294515544</v>
+      </c>
+      <c r="AV33">
+        <v>1</v>
+      </c>
+      <c r="AW33">
+        <v>1</v>
+      </c>
+      <c r="AX33">
+        <v>0</v>
+      </c>
+      <c r="AY33">
+        <v>1</v>
+      </c>
+      <c r="AZ33" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA33">
+        <v>12</v>
+      </c>
+      <c r="BC33" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AK33" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL33">
-        <v>0.01951112154262549</v>
-      </c>
-      <c r="AM33">
-        <v>1</v>
-      </c>
-      <c r="AN33">
-        <v>1</v>
-      </c>
-      <c r="AO33">
-        <v>1</v>
-      </c>
-      <c r="AP33">
-        <v>0</v>
-      </c>
-      <c r="AQ33" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR33">
-        <v>9</v>
-      </c>
-      <c r="AT33" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AU33">
-        <v>0.02137431857015238</v>
-      </c>
-      <c r="AV33">
-        <v>1</v>
-      </c>
-      <c r="AW33">
-        <v>1</v>
-      </c>
-      <c r="AX33">
-        <v>0</v>
-      </c>
-      <c r="AY33">
-        <v>1</v>
-      </c>
-      <c r="AZ33" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA33">
-        <v>19</v>
-      </c>
-      <c r="BC33" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="BD33">
-        <v>0.01956743520870721</v>
+        <v>0.01881533323507557</v>
       </c>
       <c r="BE33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG33">
         <v>1</v>
@@ -6932,19 +6929,19 @@
         <v>0</v>
       </c>
       <c r="BJ33">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="BL33" s="1" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="BM33">
-        <v>0.02181557874653406</v>
+        <v>0.02265320911716339</v>
       </c>
       <c r="BN33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BO33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BP33">
         <v>0</v>
@@ -6956,7 +6953,7 @@
         <v>0</v>
       </c>
       <c r="BS33">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:71">
@@ -6964,7 +6961,7 @@
         <v>40</v>
       </c>
       <c r="B34">
-        <v>0.01826147626148784</v>
+        <v>0.01765833654962667</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -6985,10 +6982,10 @@
         <v>8</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K34">
-        <v>0.01528786324842454</v>
+        <v>0.01920470494865872</v>
       </c>
       <c r="L34">
         <v>1</v>
@@ -7006,13 +7003,13 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T34">
-        <v>0.01933302359093511</v>
+        <v>0.01861788319364978</v>
       </c>
       <c r="U34">
         <v>1</v>
@@ -7030,13 +7027,13 @@
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AB34" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AC34">
-        <v>0.02034550546437897</v>
+        <v>0.0220362235700285</v>
       </c>
       <c r="AD34">
         <v>1</v>
@@ -7054,13 +7051,13 @@
         <v>0</v>
       </c>
       <c r="AI34">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AK34" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AL34">
-        <v>0.01949988241731291</v>
+        <v>0.01876354076222559</v>
       </c>
       <c r="AM34">
         <v>1</v>
@@ -7078,19 +7075,19 @@
         <v>0</v>
       </c>
       <c r="AR34">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AT34" s="1" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="AU34">
-        <v>0.02137431857015238</v>
+        <v>0.02247197941195548</v>
       </c>
       <c r="AV34">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AW34">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AX34">
         <v>0</v>
@@ -7102,13 +7099,13 @@
         <v>0</v>
       </c>
       <c r="BA34">
-        <v>19</v>
+        <v>206</v>
       </c>
       <c r="BC34" s="1" t="s">
         <v>43</v>
       </c>
       <c r="BD34">
-        <v>0.01955615714806819</v>
+        <v>0.0188103394789691</v>
       </c>
       <c r="BE34">
         <v>1</v>
@@ -7126,19 +7123,19 @@
         <v>0</v>
       </c>
       <c r="BJ34">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BL34" s="1" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="BM34">
-        <v>0.02172383106001181</v>
+        <v>0.0225932449335653</v>
       </c>
       <c r="BN34">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BO34">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BP34">
         <v>0</v>
@@ -7150,7 +7147,7 @@
         <v>0</v>
       </c>
       <c r="BS34">
-        <v>88</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:71">
@@ -7158,7 +7155,7 @@
         <v>41</v>
       </c>
       <c r="B35">
-        <v>0.01825096303393373</v>
+        <v>0.01765833654962667</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -7176,13 +7173,13 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K35">
-        <v>0.01521805565368287</v>
+        <v>0.01918373911356193</v>
       </c>
       <c r="L35">
         <v>1</v>
@@ -7200,13 +7197,13 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T35">
-        <v>0.01932188063785676</v>
+        <v>0.01861788319364978</v>
       </c>
       <c r="U35">
         <v>1</v>
@@ -7224,13 +7221,13 @@
         <v>0</v>
       </c>
       <c r="Z35">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AB35" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AC35">
-        <v>0.02034550546437897</v>
+        <v>0.0220362235700285</v>
       </c>
       <c r="AD35">
         <v>1</v>
@@ -7248,13 +7245,13 @@
         <v>0</v>
       </c>
       <c r="AI35">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AK35" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AL35">
-        <v>0.01948864329200034</v>
+        <v>0.01876354076222559</v>
       </c>
       <c r="AM35">
         <v>1</v>
@@ -7272,19 +7269,19 @@
         <v>0</v>
       </c>
       <c r="AR35">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AT35" s="1" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AU35">
-        <v>0.02117822390437116</v>
+        <v>0.02239585772418369</v>
       </c>
       <c r="AV35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX35">
         <v>0</v>
@@ -7296,13 +7293,13 @@
         <v>0</v>
       </c>
       <c r="BA35">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="BC35" s="1" t="s">
         <v>44</v>
       </c>
       <c r="BD35">
-        <v>0.01955615714806819</v>
+        <v>0.0188103394789691</v>
       </c>
       <c r="BE35">
         <v>1</v>
@@ -7320,13 +7317,13 @@
         <v>0</v>
       </c>
       <c r="BJ35">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BL35" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="BM35">
-        <v>0.02161543582225393</v>
+        <v>0.02254353482370047</v>
       </c>
       <c r="BN35">
         <v>1</v>
@@ -7344,7 +7341,7 @@
         <v>0</v>
       </c>
       <c r="BS35">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:71">
@@ -7352,7 +7349,7 @@
         <v>42</v>
       </c>
       <c r="B36">
-        <v>0.01824044980637963</v>
+        <v>0.01765833654962667</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -7370,13 +7367,13 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K36">
-        <v>0.01521805565368287</v>
+        <v>0.01916277327846514</v>
       </c>
       <c r="L36">
         <v>1</v>
@@ -7394,13 +7391,13 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="S36" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T36">
-        <v>0.01932188063785676</v>
+        <v>0.0186059102784127</v>
       </c>
       <c r="U36">
         <v>1</v>
@@ -7418,19 +7415,19 @@
         <v>0</v>
       </c>
       <c r="Z36">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AB36" s="1" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="AC36">
-        <v>0.0201588494509443</v>
+        <v>0.02198951772919857</v>
       </c>
       <c r="AD36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -7442,13 +7439,13 @@
         <v>0</v>
       </c>
       <c r="AI36">
-        <v>23</v>
+        <v>126</v>
       </c>
       <c r="AK36" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AL36">
-        <v>0.01948864329200034</v>
+        <v>0.01875147417652642</v>
       </c>
       <c r="AM36">
         <v>1</v>
@@ -7466,13 +7463,13 @@
         <v>0</v>
       </c>
       <c r="AR36">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AT36" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AU36">
-        <v>0.02112920023792585</v>
+        <v>0.02239541583932856</v>
       </c>
       <c r="AV36">
         <v>1</v>
@@ -7490,13 +7487,13 @@
         <v>0</v>
       </c>
       <c r="BA36">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="BC36" s="1" t="s">
         <v>45</v>
       </c>
       <c r="BD36">
-        <v>0.01952232296615112</v>
+        <v>0.01879823501340992</v>
       </c>
       <c r="BE36">
         <v>1</v>
@@ -7514,13 +7511,13 @@
         <v>0</v>
       </c>
       <c r="BJ36">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="BL36" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="BM36">
-        <v>0.0215654000911839</v>
+        <v>0.0224192595490384</v>
       </c>
       <c r="BN36">
         <v>1</v>
@@ -7546,7 +7543,7 @@
         <v>43</v>
       </c>
       <c r="B37">
-        <v>0.01822993657882551</v>
+        <v>0.0176469807061864</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -7564,13 +7561,13 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K37">
-        <v>0.01507844046419954</v>
+        <v>0.01916277327846514</v>
       </c>
       <c r="L37">
         <v>1</v>
@@ -7588,13 +7585,13 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T37">
-        <v>0.01928845177862172</v>
+        <v>0.0186059102784127</v>
       </c>
       <c r="U37">
         <v>1</v>
@@ -7612,13 +7609,13 @@
         <v>0</v>
       </c>
       <c r="Z37">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AB37" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AC37">
-        <v>0.02011218544758563</v>
+        <v>0.02191567530104585</v>
       </c>
       <c r="AD37">
         <v>1</v>
@@ -7636,13 +7633,13 @@
         <v>0</v>
       </c>
       <c r="AI37">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="AK37" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AL37">
-        <v>0.01945492591606263</v>
+        <v>0.01875147417652642</v>
       </c>
       <c r="AM37">
         <v>1</v>
@@ -7660,13 +7657,13 @@
         <v>0</v>
       </c>
       <c r="AR37">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AT37" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AU37">
-        <v>0.02112920023792585</v>
+        <v>0.0223461409969978</v>
       </c>
       <c r="AV37">
         <v>1</v>
@@ -7684,13 +7681,13 @@
         <v>0</v>
       </c>
       <c r="BA37">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="BC37" s="1" t="s">
         <v>46</v>
       </c>
       <c r="BD37">
-        <v>0.01951104490551209</v>
+        <v>0.01879823501340992</v>
       </c>
       <c r="BE37">
         <v>1</v>
@@ -7708,13 +7705,13 @@
         <v>0</v>
       </c>
       <c r="BJ37">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="BL37" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="BM37">
-        <v>0.0215654000911839</v>
+        <v>0.02236954943917356</v>
       </c>
       <c r="BN37">
         <v>1</v>
@@ -7732,7 +7729,7 @@
         <v>0</v>
       </c>
       <c r="BS37">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:71">
@@ -7740,7 +7737,7 @@
         <v>44</v>
       </c>
       <c r="B38">
-        <v>0.01822993657882551</v>
+        <v>0.0176469807061864</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -7758,13 +7755,13 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K38">
-        <v>0.01504353666682871</v>
+        <v>0.0190579441029812</v>
       </c>
       <c r="L38">
         <v>1</v>
@@ -7782,13 +7779,13 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="S38" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T38">
-        <v>0.01927730882554337</v>
+        <v>0.01859393736317563</v>
       </c>
       <c r="U38">
         <v>1</v>
@@ -7806,13 +7803,13 @@
         <v>0</v>
       </c>
       <c r="Z38">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AB38" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AC38">
-        <v>0.02011218544758563</v>
+        <v>0.02186745599345279</v>
       </c>
       <c r="AD38">
         <v>1</v>
@@ -7830,13 +7827,13 @@
         <v>0</v>
       </c>
       <c r="AI38">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AK38" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL38">
-        <v>0.01944368679075005</v>
+        <v>0.01873940759082723</v>
       </c>
       <c r="AM38">
         <v>1</v>
@@ -7854,13 +7851,13 @@
         <v>0</v>
       </c>
       <c r="AR38">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AT38" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AU38">
-        <v>0.02112920023792585</v>
+        <v>0.02222295389117091</v>
       </c>
       <c r="AV38">
         <v>1</v>
@@ -7884,7 +7881,7 @@
         <v>47</v>
       </c>
       <c r="BD38">
-        <v>0.01948848878423404</v>
+        <v>0.01879823501340992</v>
       </c>
       <c r="BE38">
         <v>1</v>
@@ -7902,19 +7899,19 @@
         <v>0</v>
       </c>
       <c r="BJ38">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="BL38" s="1" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="BM38">
-        <v>0.0215654000911839</v>
+        <v>0.0223549484579744</v>
       </c>
       <c r="BN38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BO38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BP38">
         <v>0</v>
@@ -7926,7 +7923,7 @@
         <v>0</v>
       </c>
       <c r="BS38">
-        <v>24</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:71">
@@ -7934,7 +7931,7 @@
         <v>45</v>
       </c>
       <c r="B39">
-        <v>0.01819839689616319</v>
+        <v>0.01763562486274612</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -7952,13 +7949,13 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K39">
-        <v>0.01504353666682871</v>
+        <v>0.01901601243278762</v>
       </c>
       <c r="L39">
         <v>1</v>
@@ -7976,13 +7973,13 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T39">
-        <v>0.01925502291938667</v>
+        <v>0.01859393736317563</v>
       </c>
       <c r="U39">
         <v>1</v>
@@ -8000,13 +7997,13 @@
         <v>0</v>
       </c>
       <c r="Z39">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AB39" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AC39">
-        <v>0.02011218544758563</v>
+        <v>0.02174690772447014</v>
       </c>
       <c r="AD39">
         <v>1</v>
@@ -8027,10 +8024,10 @@
         <v>24</v>
       </c>
       <c r="AK39" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AL39">
-        <v>0.01942120854012491</v>
+        <v>0.01873940759082723</v>
       </c>
       <c r="AM39">
         <v>1</v>
@@ -8048,13 +8045,13 @@
         <v>0</v>
       </c>
       <c r="AR39">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AT39" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AU39">
-        <v>0.02108017657148055</v>
+        <v>0.02217367904884015</v>
       </c>
       <c r="AV39">
         <v>1</v>
@@ -8072,13 +8069,13 @@
         <v>0</v>
       </c>
       <c r="BA39">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BC39" s="1" t="s">
         <v>48</v>
       </c>
       <c r="BD39">
-        <v>0.01948848878423404</v>
+        <v>0.01878613054785074</v>
       </c>
       <c r="BE39">
         <v>1</v>
@@ -8096,13 +8093,13 @@
         <v>0</v>
       </c>
       <c r="BJ39">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="BL39" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="BM39">
-        <v>0.02151536436011387</v>
+        <v>0.02231983932930873</v>
       </c>
       <c r="BN39">
         <v>1</v>
@@ -8120,7 +8117,7 @@
         <v>0</v>
       </c>
       <c r="BS39">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:71">
@@ -8128,7 +8125,7 @@
         <v>46</v>
       </c>
       <c r="B40">
-        <v>0.01818788366860908</v>
+        <v>0.01763562486274612</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -8146,13 +8143,13 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K40">
-        <v>0.01504353666682871</v>
+        <v>0.01891118325730368</v>
       </c>
       <c r="L40">
         <v>1</v>
@@ -8173,10 +8170,10 @@
         <v>24</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T40">
-        <v>0.01925502291938667</v>
+        <v>0.01859393736317563</v>
       </c>
       <c r="U40">
         <v>1</v>
@@ -8194,13 +8191,13 @@
         <v>0</v>
       </c>
       <c r="Z40">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AB40" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AC40">
-        <v>0.02006552144422696</v>
+        <v>0.02169868841687708</v>
       </c>
       <c r="AD40">
         <v>1</v>
@@ -8218,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="AI40">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK40" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AL40">
-        <v>0.01942120854012491</v>
+        <v>0.01873940759082723</v>
       </c>
       <c r="AM40">
         <v>1</v>
@@ -8242,13 +8239,13 @@
         <v>0</v>
       </c>
       <c r="AR40">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AT40" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AU40">
-        <v>0.02098212923858995</v>
+        <v>0.0221244042065094</v>
       </c>
       <c r="AV40">
         <v>1</v>
@@ -8266,13 +8263,13 @@
         <v>0</v>
       </c>
       <c r="BA40">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BC40" s="1" t="s">
         <v>49</v>
       </c>
       <c r="BD40">
-        <v>0.01947721072359502</v>
+        <v>0.01878613054785074</v>
       </c>
       <c r="BE40">
         <v>1</v>
@@ -8290,13 +8287,13 @@
         <v>0</v>
       </c>
       <c r="BJ40">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="BL40" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="BM40">
-        <v>0.0214152928979738</v>
+        <v>0.02224527416451149</v>
       </c>
       <c r="BN40">
         <v>1</v>
@@ -8314,7 +8311,7 @@
         <v>0</v>
       </c>
       <c r="BS40">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:71">
@@ -8322,7 +8319,7 @@
         <v>47</v>
       </c>
       <c r="B41">
-        <v>0.01816685721350086</v>
+        <v>0.01763562486274612</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -8340,13 +8337,13 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K41">
-        <v>0.01500863286945788</v>
+        <v>0.0188692515871101</v>
       </c>
       <c r="L41">
         <v>1</v>
@@ -8364,13 +8361,13 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T41">
-        <v>0.01924387996630832</v>
+        <v>0.01858196444793855</v>
       </c>
       <c r="U41">
         <v>1</v>
@@ -8388,13 +8385,13 @@
         <v>0</v>
       </c>
       <c r="Z41">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="AB41" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AC41">
-        <v>0.01997219343750963</v>
+        <v>0.02165046910928402</v>
       </c>
       <c r="AD41">
         <v>1</v>
@@ -8412,13 +8409,13 @@
         <v>0</v>
       </c>
       <c r="AI41">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK41" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AL41">
-        <v>0.01940996941481234</v>
+        <v>0.01872734100512806</v>
       </c>
       <c r="AM41">
         <v>1</v>
@@ -8436,13 +8433,13 @@
         <v>0</v>
       </c>
       <c r="AR41">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="AT41" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AU41">
-        <v>0.02093310557214464</v>
+        <v>0.02205049194301326</v>
       </c>
       <c r="AV41">
         <v>1</v>
@@ -8460,19 +8457,19 @@
         <v>0</v>
       </c>
       <c r="BA41">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="BC41" s="1" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="BD41">
-        <v>0.01945465460231697</v>
+        <v>0.01876767522225285</v>
       </c>
       <c r="BE41">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BF41">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BG41">
         <v>1</v>
@@ -8484,13 +8481,13 @@
         <v>0</v>
       </c>
       <c r="BJ41">
-        <v>20</v>
+        <v>147</v>
       </c>
       <c r="BL41" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="BM41">
-        <v>0.02136525716690377</v>
+        <v>0.02184759328559285</v>
       </c>
       <c r="BN41">
         <v>1</v>
@@ -8508,7 +8505,7 @@
         <v>0</v>
       </c>
       <c r="BS41">
-        <v>28</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:71">
@@ -8516,7 +8513,7 @@
         <v>48</v>
       </c>
       <c r="B42">
-        <v>0.01816685721350086</v>
+        <v>0.01762426901930585</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -8534,13 +8531,13 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K42">
-        <v>0.01493882527471622</v>
+        <v>0.01882731991691652</v>
       </c>
       <c r="L42">
         <v>1</v>
@@ -8558,109 +8555,109 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="S42" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T42">
+        <v>0.01858196444793855</v>
+      </c>
+      <c r="U42">
+        <v>1</v>
+      </c>
+      <c r="V42">
+        <v>1</v>
+      </c>
+      <c r="W42">
+        <v>1</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="Y42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>11</v>
+      </c>
+      <c r="AB42" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC42">
+        <v>0.02157814014789443</v>
+      </c>
+      <c r="AD42">
+        <v>1</v>
+      </c>
+      <c r="AE42">
+        <v>1</v>
+      </c>
+      <c r="AF42">
+        <v>0</v>
+      </c>
+      <c r="AG42">
+        <v>1</v>
+      </c>
+      <c r="AH42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>31</v>
+      </c>
+      <c r="AK42" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL42">
+        <v>0.01872734100512806</v>
+      </c>
+      <c r="AM42">
+        <v>1</v>
+      </c>
+      <c r="AN42">
+        <v>1</v>
+      </c>
+      <c r="AO42">
+        <v>1</v>
+      </c>
+      <c r="AP42">
+        <v>0</v>
+      </c>
+      <c r="AQ42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR42">
+        <v>11</v>
+      </c>
+      <c r="AT42" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AU42">
+        <v>0.02165629320436721</v>
+      </c>
+      <c r="AV42">
+        <v>1</v>
+      </c>
+      <c r="AW42">
+        <v>1</v>
+      </c>
+      <c r="AX42">
+        <v>0</v>
+      </c>
+      <c r="AY42">
+        <v>1</v>
+      </c>
+      <c r="AZ42" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA42">
+        <v>47</v>
+      </c>
+      <c r="BC42" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="T42">
-        <v>0.01922159406015162</v>
-      </c>
-      <c r="U42">
-        <v>1</v>
-      </c>
-      <c r="V42">
-        <v>1</v>
-      </c>
-      <c r="W42">
-        <v>1</v>
-      </c>
-      <c r="X42">
-        <v>0</v>
-      </c>
-      <c r="Y42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z42">
-        <v>20</v>
-      </c>
-      <c r="AB42" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC42">
-        <v>0.01992552943415097</v>
-      </c>
-      <c r="AD42">
-        <v>1</v>
-      </c>
-      <c r="AE42">
-        <v>1</v>
-      </c>
-      <c r="AF42">
-        <v>0</v>
-      </c>
-      <c r="AG42">
-        <v>1</v>
-      </c>
-      <c r="AH42" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI42">
-        <v>28</v>
-      </c>
-      <c r="AK42" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AL42">
-        <v>0.01938749116418719</v>
-      </c>
-      <c r="AM42">
-        <v>1</v>
-      </c>
-      <c r="AN42">
-        <v>1</v>
-      </c>
-      <c r="AO42">
-        <v>1</v>
-      </c>
-      <c r="AP42">
-        <v>0</v>
-      </c>
-      <c r="AQ42" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR42">
-        <v>20</v>
-      </c>
-      <c r="AT42" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AU42">
-        <v>0.02088172573236804</v>
-      </c>
-      <c r="AV42">
-        <v>4</v>
-      </c>
-      <c r="AW42">
-        <v>4</v>
-      </c>
-      <c r="AX42">
-        <v>0</v>
-      </c>
-      <c r="AY42">
-        <v>1</v>
-      </c>
-      <c r="AZ42" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA42">
-        <v>125</v>
-      </c>
-      <c r="BC42" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="BD42">
-        <v>0.01939826429912185</v>
+        <v>0.01874981715117319</v>
       </c>
       <c r="BE42">
         <v>1</v>
@@ -8678,13 +8675,13 @@
         <v>0</v>
       </c>
       <c r="BJ42">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="BL42" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="BM42">
-        <v>0.02116511424262365</v>
+        <v>0.02169846295599836</v>
       </c>
       <c r="BN42">
         <v>1</v>
@@ -8702,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="BS42">
-        <v>32</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:71">
@@ -8710,7 +8707,7 @@
         <v>49</v>
       </c>
       <c r="B43">
-        <v>0.01815634398594675</v>
+        <v>0.01762426901930585</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -8728,13 +8725,13 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K43">
-        <v>0.01490392147734538</v>
+        <v>0.01876442241162615</v>
       </c>
       <c r="L43">
         <v>1</v>
@@ -8752,109 +8749,109 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="S43" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T43">
+        <v>0.01854604570222733</v>
+      </c>
+      <c r="U43">
+        <v>1</v>
+      </c>
+      <c r="V43">
+        <v>1</v>
+      </c>
+      <c r="W43">
+        <v>1</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
+      <c r="Y43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>14</v>
+      </c>
+      <c r="AB43" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC43">
+        <v>0.0215065679198864</v>
+      </c>
+      <c r="AD43">
+        <v>2</v>
+      </c>
+      <c r="AE43">
+        <v>2</v>
+      </c>
+      <c r="AF43">
+        <v>0</v>
+      </c>
+      <c r="AG43">
+        <v>1</v>
+      </c>
+      <c r="AH43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>90</v>
+      </c>
+      <c r="AK43" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL43">
+        <v>0.01869114124803051</v>
+      </c>
+      <c r="AM43">
+        <v>1</v>
+      </c>
+      <c r="AN43">
+        <v>1</v>
+      </c>
+      <c r="AO43">
+        <v>1</v>
+      </c>
+      <c r="AP43">
+        <v>0</v>
+      </c>
+      <c r="AQ43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR43">
+        <v>14</v>
+      </c>
+      <c r="AT43" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AU43">
+        <v>0.02150846867737495</v>
+      </c>
+      <c r="AV43">
+        <v>1</v>
+      </c>
+      <c r="AW43">
+        <v>1</v>
+      </c>
+      <c r="AX43">
+        <v>0</v>
+      </c>
+      <c r="AY43">
+        <v>1</v>
+      </c>
+      <c r="AZ43" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA43">
+        <v>53</v>
+      </c>
+      <c r="BC43" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="T43">
-        <v>0.01916587929475988</v>
-      </c>
-      <c r="U43">
-        <v>1</v>
-      </c>
-      <c r="V43">
-        <v>1</v>
-      </c>
-      <c r="W43">
-        <v>1</v>
-      </c>
-      <c r="X43">
-        <v>0</v>
-      </c>
-      <c r="Y43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z43">
-        <v>25</v>
-      </c>
-      <c r="AB43" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC43">
-        <v>0.01973887342071629</v>
-      </c>
-      <c r="AD43">
-        <v>1</v>
-      </c>
-      <c r="AE43">
-        <v>1</v>
-      </c>
-      <c r="AF43">
-        <v>0</v>
-      </c>
-      <c r="AG43">
-        <v>1</v>
-      </c>
-      <c r="AH43" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI43">
-        <v>32</v>
-      </c>
-      <c r="AK43" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AL43">
-        <v>0.01933129553762433</v>
-      </c>
-      <c r="AM43">
-        <v>1</v>
-      </c>
-      <c r="AN43">
-        <v>1</v>
-      </c>
-      <c r="AO43">
-        <v>1</v>
-      </c>
-      <c r="AP43">
-        <v>0</v>
-      </c>
-      <c r="AQ43" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR43">
-        <v>25</v>
-      </c>
-      <c r="AT43" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AU43">
-        <v>0.02073701090636343</v>
-      </c>
-      <c r="AV43">
-        <v>1</v>
-      </c>
-      <c r="AW43">
-        <v>1</v>
-      </c>
-      <c r="AX43">
-        <v>0</v>
-      </c>
-      <c r="AY43">
-        <v>1</v>
-      </c>
-      <c r="AZ43" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA43">
-        <v>32</v>
-      </c>
-      <c r="BC43" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="BD43">
-        <v>0.01926292757145355</v>
+        <v>0.01873771268561401</v>
       </c>
       <c r="BE43">
         <v>1</v>
@@ -8872,19 +8869,19 @@
         <v>0</v>
       </c>
       <c r="BJ43">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="BL43" s="1" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="BM43">
-        <v>0.02106504278048358</v>
+        <v>0.02133589120574539</v>
       </c>
       <c r="BN43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BO43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BP43">
         <v>0</v>
@@ -8896,7 +8893,7 @@
         <v>0</v>
       </c>
       <c r="BS43">
-        <v>34</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:71">
@@ -8904,7 +8901,7 @@
         <v>50</v>
       </c>
       <c r="B44">
-        <v>0.01813531753083853</v>
+        <v>0.01759020148898503</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -8922,13 +8919,13 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K44">
-        <v>0.01476430628786205</v>
+        <v>0.01842896905007753</v>
       </c>
       <c r="L44">
         <v>1</v>
@@ -8946,19 +8943,19 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="S44" s="1" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="T44">
-        <v>0.01913238674457942</v>
+        <v>0.01853407278699026</v>
       </c>
       <c r="U44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W44">
         <v>1</v>
@@ -8970,13 +8967,13 @@
         <v>0</v>
       </c>
       <c r="Z44">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="AB44" s="1" t="s">
         <v>106</v>
       </c>
       <c r="AC44">
-        <v>0.01964554541399896</v>
+        <v>0.02119238568714995</v>
       </c>
       <c r="AD44">
         <v>1</v>
@@ -8994,67 +8991,67 @@
         <v>0</v>
       </c>
       <c r="AI44">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="AK44" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL44">
+        <v>0.01867907466233133</v>
+      </c>
+      <c r="AM44">
+        <v>1</v>
+      </c>
+      <c r="AN44">
+        <v>1</v>
+      </c>
+      <c r="AO44">
+        <v>1</v>
+      </c>
+      <c r="AP44">
+        <v>0</v>
+      </c>
+      <c r="AQ44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR44">
+        <v>15</v>
+      </c>
+      <c r="AT44" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU44">
+        <v>0.02138572345640319</v>
+      </c>
+      <c r="AV44">
+        <v>2</v>
+      </c>
+      <c r="AW44">
+        <v>2</v>
+      </c>
+      <c r="AX44">
+        <v>0</v>
+      </c>
+      <c r="AY44">
+        <v>1</v>
+      </c>
+      <c r="AZ44" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA44">
+        <v>90</v>
+      </c>
+      <c r="BC44" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AL44">
-        <v>0.01919642603387346</v>
-      </c>
-      <c r="AM44">
-        <v>1</v>
-      </c>
-      <c r="AN44">
-        <v>1</v>
-      </c>
-      <c r="AO44">
-        <v>1</v>
-      </c>
-      <c r="AP44">
-        <v>0</v>
-      </c>
-      <c r="AQ44" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR44">
-        <v>37</v>
-      </c>
-      <c r="AT44" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AU44">
-        <v>0.02063896357347282</v>
-      </c>
-      <c r="AV44">
-        <v>1</v>
-      </c>
-      <c r="AW44">
-        <v>1</v>
-      </c>
-      <c r="AX44">
-        <v>0</v>
-      </c>
-      <c r="AY44">
-        <v>1</v>
-      </c>
-      <c r="AZ44" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA44">
-        <v>34</v>
-      </c>
-      <c r="BC44" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="BD44">
-        <v>0.01922447902417068</v>
+        <v>0.01872560822005483</v>
       </c>
       <c r="BE44">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BF44">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BG44">
         <v>1</v>
@@ -9066,19 +9063,19 @@
         <v>0</v>
       </c>
       <c r="BJ44">
-        <v>130</v>
+        <v>16</v>
       </c>
       <c r="BL44" s="1" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="BM44">
-        <v>0.02101500704941355</v>
+        <v>0.02123803124481718</v>
       </c>
       <c r="BN44">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BO44">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BP44">
         <v>0</v>
@@ -9090,7 +9087,7 @@
         <v>0</v>
       </c>
       <c r="BS44">
-        <v>35</v>
+        <v>206</v>
       </c>
     </row>
     <row r="45" spans="1:71">
@@ -9098,7 +9095,7 @@
         <v>51</v>
       </c>
       <c r="B45">
-        <v>0.01808275139306799</v>
+        <v>0.01757884564554475</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -9116,13 +9113,13 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K45">
-        <v>0.01469449869312039</v>
+        <v>0.0183031740394968</v>
       </c>
       <c r="L45">
         <v>1</v>
@@ -9140,13 +9137,13 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="S45" s="1" t="s">
         <v>52</v>
       </c>
       <c r="T45">
-        <v>0.01903216385781969</v>
+        <v>0.01852209987175318</v>
       </c>
       <c r="U45">
         <v>1</v>
@@ -9164,13 +9161,13 @@
         <v>0</v>
       </c>
       <c r="Z45">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="AB45" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AC45">
-        <v>0.01959888141064029</v>
+        <v>0.02104772776437077</v>
       </c>
       <c r="AD45">
         <v>1</v>
@@ -9188,19 +9185,19 @@
         <v>0</v>
       </c>
       <c r="AI45">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="AK45" s="1" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="AL45">
-        <v>0.01902780244524365</v>
+        <v>0.01866700807663215</v>
       </c>
       <c r="AM45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO45">
         <v>1</v>
@@ -9212,19 +9209,19 @@
         <v>0</v>
       </c>
       <c r="AR45">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="AT45" s="1" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AU45">
-        <v>0.02058993990702752</v>
+        <v>0.02128761565659681</v>
       </c>
       <c r="AV45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX45">
         <v>0</v>
@@ -9236,13 +9233,13 @@
         <v>0</v>
       </c>
       <c r="BA45">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="BC45" s="1" t="s">
         <v>53</v>
       </c>
       <c r="BD45">
-        <v>0.01905992247995112</v>
+        <v>0.01871350375449564</v>
       </c>
       <c r="BE45">
         <v>1</v>
@@ -9260,19 +9257,19 @@
         <v>0</v>
       </c>
       <c r="BJ45">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="BL45" s="1" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="BM45">
-        <v>0.02011436389015296</v>
+        <v>0.02099817451042483</v>
       </c>
       <c r="BN45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BO45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BP45">
         <v>0</v>
@@ -9284,7 +9281,7 @@
         <v>0</v>
       </c>
       <c r="BS45">
-        <v>53</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46" spans="1:71">
@@ -9292,7 +9289,7 @@
         <v>52</v>
       </c>
       <c r="B46">
-        <v>0.01795659266241867</v>
+        <v>0.01756748980210448</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -9310,13 +9307,13 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K46">
-        <v>0.01465959489574956</v>
+        <v>0.01641624888078579</v>
       </c>
       <c r="L46">
         <v>1</v>
@@ -9334,19 +9331,19 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>35</v>
+        <v>143</v>
       </c>
       <c r="S46" s="1" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="T46">
-        <v>0.01886495587069904</v>
+        <v>0.01851012695651611</v>
       </c>
       <c r="U46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W46">
         <v>1</v>
@@ -9358,13 +9355,13 @@
         <v>0</v>
       </c>
       <c r="Z46">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="AB46" s="1" t="s">
         <v>108</v>
       </c>
       <c r="AC46">
-        <v>0.01875892935018428</v>
+        <v>0.01887785892268306</v>
       </c>
       <c r="AD46">
         <v>1</v>
@@ -9382,13 +9379,13 @@
         <v>0</v>
       </c>
       <c r="AI46">
-        <v>53</v>
+        <v>143</v>
       </c>
       <c r="AK46" s="1" t="s">
         <v>53</v>
       </c>
       <c r="AL46">
-        <v>0.01899412177824716</v>
+        <v>0.01865494149093297</v>
       </c>
       <c r="AM46">
         <v>1</v>
@@ -9406,13 +9403,13 @@
         <v>0</v>
       </c>
       <c r="AR46">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="AT46" s="1" t="s">
         <v>108</v>
       </c>
       <c r="AU46">
-        <v>0.01970751391101205</v>
+        <v>0.01929110077249093</v>
       </c>
       <c r="AV46">
         <v>1</v>
@@ -9430,19 +9427,19 @@
         <v>0</v>
       </c>
       <c r="BA46">
-        <v>53</v>
+        <v>143</v>
       </c>
       <c r="BC46" s="1" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="BD46">
-        <v>0.01898546149445601</v>
+        <v>0.01871350375449564</v>
       </c>
       <c r="BE46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG46">
         <v>1</v>
@@ -9454,19 +9451,19 @@
         <v>0</v>
       </c>
       <c r="BJ46">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="BL46" s="1" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="BM46">
-        <v>0.01987250901042062</v>
+        <v>0.019461508012081</v>
       </c>
       <c r="BN46">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BO46">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BP46">
         <v>0</v>
@@ -9478,7 +9475,7 @@
         <v>0</v>
       </c>
       <c r="BS46">
-        <v>125</v>
+        <v>143</v>
       </c>
     </row>
     <row r="47" spans="1:71">
@@ -9486,7 +9483,7 @@
         <v>53</v>
       </c>
       <c r="B47">
-        <v>0.01776735456644471</v>
+        <v>0.01755613395866421</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -9504,133 +9501,133 @@
         <v>0</v>
       </c>
       <c r="H47">
+        <v>17</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="M47">
+        <v>2</v>
+      </c>
+      <c r="N47">
+        <v>0.5</v>
+      </c>
+      <c r="O47">
+        <v>0.5</v>
+      </c>
+      <c r="P47" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>926</v>
+      </c>
+      <c r="S47" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T47">
+        <v>0.01851012695651611</v>
+      </c>
+      <c r="U47">
+        <v>1</v>
+      </c>
+      <c r="V47">
+        <v>1</v>
+      </c>
+      <c r="W47">
+        <v>1</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
+      </c>
+      <c r="Y47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>17</v>
+      </c>
+      <c r="AB47" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC47">
+        <v>0</v>
+      </c>
+      <c r="AD47">
+        <v>1</v>
+      </c>
+      <c r="AE47">
+        <v>2</v>
+      </c>
+      <c r="AF47">
+        <v>0.5</v>
+      </c>
+      <c r="AG47">
+        <v>0.5</v>
+      </c>
+      <c r="AH47" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI47">
+        <v>926</v>
+      </c>
+      <c r="AK47" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL47">
+        <v>0.01865494149093297</v>
+      </c>
+      <c r="AM47">
+        <v>1</v>
+      </c>
+      <c r="AN47">
+        <v>1</v>
+      </c>
+      <c r="AO47">
+        <v>1</v>
+      </c>
+      <c r="AP47">
+        <v>0</v>
+      </c>
+      <c r="AQ47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR47">
+        <v>17</v>
+      </c>
+      <c r="AT47" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU47">
+        <v>0</v>
+      </c>
+      <c r="AV47">
+        <v>1</v>
+      </c>
+      <c r="AW47">
+        <v>2</v>
+      </c>
+      <c r="AX47">
+        <v>0.5</v>
+      </c>
+      <c r="AY47">
+        <v>0.5</v>
+      </c>
+      <c r="AZ47" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA47">
+        <v>926</v>
+      </c>
+      <c r="BC47" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="J47" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K47">
-        <v>0.01403132654307458</v>
-      </c>
-      <c r="L47">
-        <v>1</v>
-      </c>
-      <c r="M47">
-        <v>1</v>
-      </c>
-      <c r="N47">
-        <v>0</v>
-      </c>
-      <c r="O47">
-        <v>1</v>
-      </c>
-      <c r="P47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>53</v>
-      </c>
-      <c r="S47" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="T47">
-        <v>0.01883159070240942</v>
-      </c>
-      <c r="U47">
-        <v>1</v>
-      </c>
-      <c r="V47">
-        <v>1</v>
-      </c>
-      <c r="W47">
-        <v>1</v>
-      </c>
-      <c r="X47">
-        <v>0</v>
-      </c>
-      <c r="Y47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z47">
-        <v>55</v>
-      </c>
-      <c r="AB47" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC47">
-        <v>0.0172177089607529</v>
-      </c>
-      <c r="AD47">
-        <v>2</v>
-      </c>
-      <c r="AE47">
-        <v>2</v>
-      </c>
-      <c r="AF47">
-        <v>0</v>
-      </c>
-      <c r="AG47">
-        <v>1</v>
-      </c>
-      <c r="AH47" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI47">
-        <v>142</v>
-      </c>
-      <c r="AK47" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AL47">
-        <v>0.01875806343774192</v>
-      </c>
-      <c r="AM47">
-        <v>2</v>
-      </c>
-      <c r="AN47">
-        <v>2</v>
-      </c>
-      <c r="AO47">
-        <v>1</v>
-      </c>
-      <c r="AP47">
-        <v>0</v>
-      </c>
-      <c r="AQ47" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR47">
-        <v>108</v>
-      </c>
-      <c r="AT47" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AU47">
-        <v>0.01691237953251932</v>
-      </c>
-      <c r="AV47">
-        <v>2</v>
-      </c>
-      <c r="AW47">
-        <v>2</v>
-      </c>
-      <c r="AX47">
-        <v>0</v>
-      </c>
-      <c r="AY47">
-        <v>1</v>
-      </c>
-      <c r="AZ47" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA47">
-        <v>142</v>
-      </c>
-      <c r="BC47" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="BD47">
-        <v>0.01878924902461453</v>
+        <v>0.01867719035781809</v>
       </c>
       <c r="BE47">
         <v>1</v>
@@ -9648,31 +9645,31 @@
         <v>0</v>
       </c>
       <c r="BJ47">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="BL47" s="1" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="BM47">
-        <v>0.01678142307735676</v>
+        <v>0</v>
       </c>
       <c r="BN47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO47">
         <v>2</v>
       </c>
       <c r="BP47">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BQ47">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="BR47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS47">
-        <v>142</v>
+        <v>926</v>
       </c>
     </row>
     <row r="48" spans="1:71">
@@ -9680,7 +9677,7 @@
         <v>54</v>
       </c>
       <c r="B48">
-        <v>0.01751503710514608</v>
+        <v>0.01755613395866421</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -9698,37 +9695,13 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>79</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48">
-        <v>1</v>
-      </c>
-      <c r="M48">
-        <v>1</v>
-      </c>
-      <c r="N48">
-        <v>0</v>
-      </c>
-      <c r="O48">
-        <v>1</v>
-      </c>
-      <c r="P48" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <v>455</v>
+        <v>17</v>
       </c>
       <c r="S48" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T48">
-        <v>0.01856415982852904</v>
+        <v>0.01847420821080489</v>
       </c>
       <c r="U48">
         <v>1</v>
@@ -9746,37 +9719,13 @@
         <v>0</v>
       </c>
       <c r="Z48">
-        <v>79</v>
-      </c>
-      <c r="AB48" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC48">
-        <v>0</v>
-      </c>
-      <c r="AD48">
-        <v>1</v>
-      </c>
-      <c r="AE48">
-        <v>1</v>
-      </c>
-      <c r="AF48">
-        <v>0</v>
-      </c>
-      <c r="AG48">
-        <v>1</v>
-      </c>
-      <c r="AH48" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI48">
-        <v>455</v>
+        <v>20</v>
       </c>
       <c r="AK48" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL48">
-        <v>0.01872438277074543</v>
+        <v>0.01861874173383543</v>
       </c>
       <c r="AM48">
         <v>1</v>
@@ -9794,43 +9743,19 @@
         <v>0</v>
       </c>
       <c r="AR48">
-        <v>79</v>
-      </c>
-      <c r="AT48" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AU48">
-        <v>0</v>
-      </c>
-      <c r="AV48">
-        <v>1</v>
-      </c>
-      <c r="AW48">
-        <v>1</v>
-      </c>
-      <c r="AX48">
-        <v>0</v>
-      </c>
-      <c r="AY48">
-        <v>1</v>
-      </c>
-      <c r="AZ48" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA48">
-        <v>455</v>
+        <v>20</v>
       </c>
       <c r="BC48" s="1" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="BD48">
-        <v>0.01871478803911943</v>
+        <v>0.01859245909890382</v>
       </c>
       <c r="BE48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG48">
         <v>1</v>
@@ -9842,31 +9767,7 @@
         <v>0</v>
       </c>
       <c r="BJ48">
-        <v>108</v>
-      </c>
-      <c r="BL48" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="BM48">
-        <v>0</v>
-      </c>
-      <c r="BN48">
-        <v>1</v>
-      </c>
-      <c r="BO48">
-        <v>1</v>
-      </c>
-      <c r="BP48">
-        <v>0</v>
-      </c>
-      <c r="BQ48">
-        <v>1</v>
-      </c>
-      <c r="BR48" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS48">
-        <v>455</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49" spans="1:62">
@@ -9874,7 +9775,7 @@
         <v>55</v>
       </c>
       <c r="B49">
-        <v>0.01688424345189952</v>
+        <v>0.01752206642834338</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -9892,13 +9793,13 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T49">
-        <v>0.01789558264382812</v>
+        <v>0.01839039780414537</v>
       </c>
       <c r="U49">
         <v>1</v>
@@ -9916,13 +9817,13 @@
         <v>0</v>
       </c>
       <c r="Z49">
-        <v>139</v>
+        <v>27</v>
       </c>
       <c r="AK49" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AL49">
-        <v>0.01805003525199109</v>
+        <v>0.01853427563394117</v>
       </c>
       <c r="AM49">
         <v>1</v>
@@ -9940,13 +9841,13 @@
         <v>0</v>
       </c>
       <c r="AR49">
-        <v>139</v>
+        <v>27</v>
       </c>
       <c r="BC49" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="BD49">
-        <v>0.01811256538627307</v>
+        <v>0.01844720551219363</v>
       </c>
       <c r="BE49">
         <v>1</v>
@@ -9964,7 +9865,7 @@
         <v>0</v>
       </c>
       <c r="BJ49">
-        <v>139</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" spans="1:62">
@@ -9972,7 +9873,7 @@
         <v>56</v>
       </c>
       <c r="B50">
-        <v>0.01678962440391254</v>
+        <v>0.01744257552426146</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -9990,19 +9891,19 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>148</v>
+        <v>27</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="T50">
-        <v>0.01779529606612298</v>
+        <v>0.01837880068462528</v>
       </c>
       <c r="U50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W50">
         <v>1</v>
@@ -10014,13 +9915,13 @@
         <v>0</v>
       </c>
       <c r="Z50">
-        <v>148</v>
+        <v>84</v>
       </c>
       <c r="AK50" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AL50">
-        <v>0.01794888312417794</v>
+        <v>0.018389476605551</v>
       </c>
       <c r="AM50">
         <v>1</v>
@@ -10038,19 +9939,19 @@
         <v>0</v>
       </c>
       <c r="AR50">
-        <v>148</v>
+        <v>39</v>
       </c>
       <c r="BC50" s="1" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="BD50">
-        <v>0.01801106284052185</v>
+        <v>0.01837821537101279</v>
       </c>
       <c r="BE50">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="BF50">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="BG50">
         <v>1</v>
@@ -10062,7 +9963,7 @@
         <v>0</v>
       </c>
       <c r="BJ50">
-        <v>148</v>
+        <v>224</v>
       </c>
     </row>
     <row r="51" spans="1:62">
@@ -10070,7 +9971,7 @@
         <v>57</v>
       </c>
       <c r="B51">
-        <v>0.01643217466707282</v>
+        <v>0.01730630540297817</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -10088,13 +9989,13 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>182</v>
+        <v>39</v>
       </c>
       <c r="S51" s="1" t="s">
         <v>57</v>
       </c>
       <c r="T51">
-        <v>0.01741643566145912</v>
+        <v>0.01824672282130049</v>
       </c>
       <c r="U51">
         <v>1</v>
@@ -10112,13 +10013,13 @@
         <v>0</v>
       </c>
       <c r="Z51">
-        <v>182</v>
+        <v>39</v>
       </c>
       <c r="AK51" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AL51">
-        <v>0.01756675286355048</v>
+        <v>0.01831707709135592</v>
       </c>
       <c r="AM51">
         <v>1</v>
@@ -10136,13 +10037,13 @@
         <v>0</v>
       </c>
       <c r="AR51">
-        <v>182</v>
+        <v>45</v>
       </c>
       <c r="BC51" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BD51">
-        <v>0.01762760877879503</v>
+        <v>0.01837457871883854</v>
       </c>
       <c r="BE51">
         <v>1</v>
@@ -10160,7 +10061,7 @@
         <v>0</v>
       </c>
       <c r="BJ51">
-        <v>182</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" spans="1:62">
@@ -10168,7 +10069,7 @@
         <v>58</v>
       </c>
       <c r="B52">
-        <v>0.01619037043332831</v>
+        <v>0.01723817034233652</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -10186,13 +10087,13 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>205</v>
+        <v>45</v>
       </c>
       <c r="S52" s="1" t="s">
         <v>58</v>
       </c>
       <c r="T52">
-        <v>0.0171601477406571</v>
+        <v>0.01817488532987804</v>
       </c>
       <c r="U52">
         <v>1</v>
@@ -10210,19 +10111,19 @@
         <v>0</v>
       </c>
       <c r="Z52">
-        <v>205</v>
+        <v>45</v>
       </c>
       <c r="AK52" s="1" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="AL52">
-        <v>0.01730825298136132</v>
+        <v>0.01823282741189941</v>
       </c>
       <c r="AM52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO52">
         <v>1</v>
@@ -10234,19 +10135,19 @@
         <v>0</v>
       </c>
       <c r="AR52">
-        <v>205</v>
+        <v>84</v>
       </c>
       <c r="BC52" s="1" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="BD52">
-        <v>0.01736821338409747</v>
+        <v>0.01817379656043892</v>
       </c>
       <c r="BE52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG52">
         <v>1</v>
@@ -10258,7 +10159,7 @@
         <v>0</v>
       </c>
       <c r="BJ52">
-        <v>205</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53" spans="1:62">
@@ -10266,7 +10167,7 @@
         <v>59</v>
       </c>
       <c r="B53">
-        <v>0.01191148681880583</v>
+        <v>0.01682935997848664</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -10284,13 +10185,13 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>612</v>
+        <v>81</v>
       </c>
       <c r="S53" s="1" t="s">
         <v>59</v>
       </c>
       <c r="T53">
-        <v>0.01262496583776915</v>
+        <v>0.01774386038134339</v>
       </c>
       <c r="U53">
         <v>1</v>
@@ -10308,13 +10209,13 @@
         <v>0</v>
       </c>
       <c r="Z53">
-        <v>612</v>
+        <v>81</v>
       </c>
       <c r="AK53" s="1" t="s">
         <v>59</v>
       </c>
       <c r="AL53">
-        <v>0.0127339289791444</v>
+        <v>0.01788268000618543</v>
       </c>
       <c r="AM53">
         <v>1</v>
@@ -10332,13 +10233,13 @@
         <v>0</v>
       </c>
       <c r="AR53">
-        <v>612</v>
+        <v>81</v>
       </c>
       <c r="BC53" s="1" t="s">
         <v>59</v>
       </c>
       <c r="BD53">
-        <v>0.01277804270401457</v>
+        <v>0.01793881795870798</v>
       </c>
       <c r="BE53">
         <v>1</v>
@@ -10356,7 +10257,7 @@
         <v>0</v>
       </c>
       <c r="BJ53">
-        <v>612</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54" spans="1:62">
@@ -10364,7 +10265,7 @@
         <v>60</v>
       </c>
       <c r="B54">
-        <v>0.008484174636166202</v>
+        <v>0.016182076902391</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -10382,13 +10283,13 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>938</v>
+        <v>138</v>
       </c>
       <c r="S54" s="1" t="s">
         <v>60</v>
       </c>
       <c r="T54">
-        <v>0.008992363134227455</v>
+        <v>0.01706140421283018</v>
       </c>
       <c r="U54">
         <v>1</v>
@@ -10406,13 +10307,13 @@
         <v>0</v>
       </c>
       <c r="Z54">
-        <v>938</v>
+        <v>138</v>
       </c>
       <c r="AK54" s="1" t="s">
         <v>60</v>
       </c>
       <c r="AL54">
-        <v>0.009069974127245835</v>
+        <v>0.01719488462133214</v>
       </c>
       <c r="AM54">
         <v>1</v>
@@ -10430,13 +10331,13 @@
         <v>0</v>
       </c>
       <c r="AR54">
-        <v>938</v>
+        <v>138</v>
       </c>
       <c r="BC54" s="1" t="s">
         <v>60</v>
       </c>
       <c r="BD54">
-        <v>0.009101394935692633</v>
+        <v>0.0172488634218346</v>
       </c>
       <c r="BE54">
         <v>1</v>
@@ -10454,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="BJ54">
-        <v>938</v>
+        <v>138</v>
       </c>
     </row>
     <row r="55" spans="1:62">
@@ -10462,7 +10363,7 @@
         <v>61</v>
       </c>
       <c r="B55">
-        <v>0.006549740766210091</v>
+        <v>0.01558021720005646</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -10480,13 +10381,13 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>1122</v>
+        <v>191</v>
       </c>
       <c r="S55" s="1" t="s">
         <v>61</v>
       </c>
       <c r="T55">
-        <v>0.006942059767811283</v>
+        <v>0.01642683970526527</v>
       </c>
       <c r="U55">
         <v>1</v>
@@ -10504,13 +10405,13 @@
         <v>0</v>
       </c>
       <c r="Z55">
-        <v>1122</v>
+        <v>191</v>
       </c>
       <c r="AK55" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AL55">
-        <v>0.007001975069732535</v>
+        <v>0.01655535557927557</v>
       </c>
       <c r="AM55">
         <v>1</v>
@@ -10528,13 +10429,13 @@
         <v>0</v>
       </c>
       <c r="AR55">
-        <v>1122</v>
+        <v>191</v>
       </c>
       <c r="BC55" s="1" t="s">
         <v>61</v>
       </c>
       <c r="BD55">
-        <v>0.007026231778112157</v>
+        <v>0.01660732674719794</v>
       </c>
       <c r="BE55">
         <v>1</v>
@@ -10552,7 +10453,7 @@
         <v>0</v>
       </c>
       <c r="BJ55">
-        <v>1122</v>
+        <v>191</v>
       </c>
     </row>
     <row r="56" spans="1:62">
@@ -10560,97 +10461,195 @@
         <v>62</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>0.007233672271454786</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56">
-        <v>1745</v>
+        <v>926</v>
       </c>
       <c r="S56" s="1" t="s">
         <v>62</v>
       </c>
       <c r="T56">
-        <v>0</v>
+        <v>0.007626747006016016</v>
       </c>
       <c r="U56">
         <v>1</v>
       </c>
       <c r="V56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W56">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="X56">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Y56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z56">
-        <v>1745</v>
+        <v>926</v>
       </c>
       <c r="AK56" s="1" t="s">
         <v>62</v>
       </c>
       <c r="AL56">
-        <v>0</v>
+        <v>0.007686415090377948</v>
       </c>
       <c r="AM56">
         <v>1</v>
       </c>
       <c r="AN56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO56">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP56">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AQ56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR56">
-        <v>1745</v>
+        <v>926</v>
       </c>
       <c r="BC56" s="1" t="s">
         <v>62</v>
       </c>
       <c r="BD56">
-        <v>0</v>
+        <v>0.007710544561199047</v>
       </c>
       <c r="BE56">
         <v>1</v>
       </c>
       <c r="BF56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG56">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="BH56">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BI56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ56">
-        <v>1745</v>
+        <v>926</v>
+      </c>
+    </row>
+    <row r="57" spans="1:62">
+      <c r="A57" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57" t="b">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>1563</v>
+      </c>
+      <c r="S57" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="T57">
+        <v>0</v>
+      </c>
+      <c r="U57">
+        <v>1</v>
+      </c>
+      <c r="V57">
+        <v>1</v>
+      </c>
+      <c r="W57">
+        <v>1</v>
+      </c>
+      <c r="X57">
+        <v>0</v>
+      </c>
+      <c r="Y57" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>1563</v>
+      </c>
+      <c r="AK57" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL57">
+        <v>0</v>
+      </c>
+      <c r="AM57">
+        <v>1</v>
+      </c>
+      <c r="AN57">
+        <v>1</v>
+      </c>
+      <c r="AO57">
+        <v>1</v>
+      </c>
+      <c r="AP57">
+        <v>0</v>
+      </c>
+      <c r="AQ57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR57">
+        <v>1563</v>
+      </c>
+      <c r="BC57" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BD57">
+        <v>0</v>
+      </c>
+      <c r="BE57">
+        <v>1</v>
+      </c>
+      <c r="BF57">
+        <v>1</v>
+      </c>
+      <c r="BG57">
+        <v>1</v>
+      </c>
+      <c r="BH57">
+        <v>0</v>
+      </c>
+      <c r="BI57" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ57">
+        <v>1563</v>
       </c>
     </row>
   </sheetData>
